--- a/samples/SA-عينة-مستلزمات-البناء-preview.xlsx
+++ b/samples/SA-عينة-مستلزمات-البناء-preview.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="978" uniqueCount="762">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="978" uniqueCount="527">
   <si>
     <t>Name</t>
   </si>
@@ -49,40 +49,34 @@
     <t>Keywords</t>
   </si>
   <si>
-    <t>ابليك جداري مفرد 3اضاءات همر</t>
-  </si>
-  <si>
-    <t>ابليك جداري مفرد زيتي همر</t>
-  </si>
-  <si>
-    <t>ابليك جداري مفرد مودرن نحاسي همر</t>
-  </si>
-  <si>
-    <t>ابليك جداري مودرن 3اضاءات همر</t>
-  </si>
-  <si>
-    <t>ثريا مودرن اسود مع ذهبي مع 3اضاءات من همر</t>
-  </si>
-  <si>
-    <t>ثريا مودرن ذهبي همر مع اسود همر</t>
-  </si>
-  <si>
-    <t>كشاف بوابة 1 لمبة E27 ماركة همر</t>
-  </si>
-  <si>
-    <t>كشاف بوابة 2 لمبة E27 ماركة همر</t>
-  </si>
-  <si>
-    <t>كشاف بوابة أصفر شرائح 24 واط همر</t>
-  </si>
-  <si>
-    <t>كشاف بوابة اسود مع اصفر 14 واط همر</t>
-  </si>
-  <si>
-    <t>خلاط بانيو أطلس</t>
-  </si>
-  <si>
-    <t>خلاط مطبخ فكتوريا ان</t>
+    <t>ابليك جداري مف...</t>
+  </si>
+  <si>
+    <t>ابليك جداري مو...</t>
+  </si>
+  <si>
+    <t>ثريا مودرن اسو...</t>
+  </si>
+  <si>
+    <t>ثريا مودرن ذهب...</t>
+  </si>
+  <si>
+    <t>كشاف بوابة 1 ل...</t>
+  </si>
+  <si>
+    <t>كشاف بوابة 2 ل...</t>
+  </si>
+  <si>
+    <t>كشاف بوابة أصف...</t>
+  </si>
+  <si>
+    <t>كشاف بوابة اسو...</t>
+  </si>
+  <si>
+    <t>خلاط بانيو أطل...</t>
+  </si>
+  <si>
+    <t>خلاط مطبخ فكتو...</t>
   </si>
   <si>
     <t>كرسي ديبا</t>
@@ -94,43 +88,34 @@
     <t>مغسلة ذا جاب</t>
   </si>
   <si>
-    <t>طقم اكسسوارات ماستر 5 قطع</t>
-  </si>
-  <si>
-    <t>طقم اكسسوارات حمام - كلاسيكا</t>
-  </si>
-  <si>
-    <t>كوع سماعة B0726AA</t>
-  </si>
-  <si>
-    <t>كوع سماعة A6383AA</t>
-  </si>
-  <si>
-    <t>كوع سماعة A6382AA</t>
-  </si>
-  <si>
-    <t>V مودل فولت220 قلب متحرك</t>
-  </si>
-  <si>
-    <t>إكسسوارات, إزاميل ممتاز, 250 مم</t>
-  </si>
-  <si>
-    <t>إكسسوارات, ريشة سنفره داخليه للصاروخ</t>
-  </si>
-  <si>
-    <t>إكسسوارات, شفرة منشار دائري ( النوع القياسي )</t>
-  </si>
-  <si>
-    <t>إكسسوارات, شفرة منشار رقيقة للخشب (5 قطع / مجموعة)</t>
-  </si>
-  <si>
-    <t>إكسسوارات, لقمة تفريز مستقيمة (12 ملم)</t>
-  </si>
-  <si>
-    <t>إكسسوارات, مفتاح رأس مثقاب</t>
-  </si>
-  <si>
-    <t>القلب الثابت 220 فولت</t>
+    <t>طقم اكسسوارات ...</t>
+  </si>
+  <si>
+    <t>كوع سماعة B072...</t>
+  </si>
+  <si>
+    <t>كوع سماعة A638...</t>
+  </si>
+  <si>
+    <t>V مودل فولت220...</t>
+  </si>
+  <si>
+    <t>إكسسوارات, إزا...</t>
+  </si>
+  <si>
+    <t>إكسسوارات, ريش...</t>
+  </si>
+  <si>
+    <t>إكسسوارات, شفر...</t>
+  </si>
+  <si>
+    <t>إكسسوارات, لقم...</t>
+  </si>
+  <si>
+    <t>إكسسوارات, مفت...</t>
+  </si>
+  <si>
+    <t>القلب الثابت 2...</t>
   </si>
   <si>
     <t>برغي M5X30</t>
@@ -139,223 +124,124 @@
     <t>بيت محرك</t>
   </si>
   <si>
-    <t>دفاش باب 97112 - SILVER</t>
-  </si>
-  <si>
-    <t>دفاش باب CL3201 - BRONZE</t>
-  </si>
-  <si>
-    <t>سكة سحاب درج Drawer Slides 45-60CM 24"SN</t>
-  </si>
-  <si>
-    <t>سكة سحاب درج Drawer Slides 45-50CM 20"SN</t>
-  </si>
-  <si>
-    <t>سكة سحاب درج Drawer Slides 45-45CM 18"SN</t>
-  </si>
-  <si>
-    <t>اكسسورات مطابخ وخزائن Drawer Slides 45-40CM 16"SN</t>
-  </si>
-  <si>
-    <t>سكة سحاب درج Drawer Slides 45-35CM 14"SN</t>
-  </si>
-  <si>
-    <t>سكة سحاب درج Drawer Slides 45-30CM 12"SN</t>
-  </si>
-  <si>
-    <t>سكة سحاب درج Drawer Slides 45-25CM 10"SN</t>
-  </si>
-  <si>
-    <t>مفصلات دواليب CABINET HINGE - INSET</t>
-  </si>
-  <si>
-    <t>قاطع أنابيب يدوي, قدرة القطع 1 بوصة إلى 3-1 / 8 بوصة</t>
+    <t>دفاش باب 97112...</t>
+  </si>
+  <si>
+    <t>دفاش باب CL320...</t>
+  </si>
+  <si>
+    <t>سكة سحاب درج D...</t>
+  </si>
+  <si>
+    <t>اكسسورات مطابخ...</t>
+  </si>
+  <si>
+    <t>مفصلات دواليب ...</t>
+  </si>
+  <si>
+    <t>قاطع أنابيب يد...</t>
   </si>
   <si>
     <t>مثقاب يدوي</t>
   </si>
   <si>
-    <t>حراري - جسر منحني ضغط 25 متي</t>
-  </si>
-  <si>
-    <t>حراري - جلبة بسن خارجي سداسي ضغط 25</t>
-  </si>
-  <si>
-    <t>حراري - جلبة بسن داخلي ضغط 25 متي</t>
-  </si>
-  <si>
-    <t>حراري - جلبة بسن داخلي Hexa. 90x3"</t>
-  </si>
-  <si>
-    <t>حراري - جلبة بسن داخلي Hexa. 63x2 ضغط 25</t>
-  </si>
-  <si>
-    <t>حراري - جلبة بسن داخلي Hexa. 50x11/2 ضغط 25</t>
-  </si>
-  <si>
-    <t>حراري - جلبة بسن داخلي Hexa. 40x11/4 ضغط 25</t>
-  </si>
-  <si>
-    <t>حراري - جلبة بسن داخلي Hexa. 20x3/4 ضغط 25</t>
+    <t>حراري - جسر من...</t>
+  </si>
+  <si>
+    <t>حراري - جلبة ب...</t>
   </si>
   <si>
     <t>Gateway G2</t>
   </si>
   <si>
-    <t>اكسس كنترول كانجو K2F - BLACK</t>
+    <t>اكسس كنترول كا...</t>
   </si>
   <si>
     <t>سلندر ذكي C11</t>
   </si>
   <si>
-    <t>قفل إلكتروني ذكي - X1</t>
+    <t>قفل إلكتروني ذ...</t>
   </si>
   <si>
     <t>قفل الكتروني</t>
   </si>
   <si>
-    <t>قفل خارجي حديد إلكتروني</t>
-  </si>
-  <si>
-    <t>قفل خزائن ذكي Q20</t>
-  </si>
-  <si>
-    <t>قفل ذكي KSR101</t>
-  </si>
-  <si>
-    <t>قفل ذكي للأبواب الداخليه TR30</t>
-  </si>
-  <si>
-    <t>قفل ذكي للابواب الخارجية H2B</t>
-  </si>
-  <si>
-    <t>ام بي 90 إيكوإكستريم -عازل للماء والزيت</t>
-  </si>
-  <si>
-    <t>بي اس 87 برو - لإزالة بقع الزيوت العنيدة</t>
-  </si>
-  <si>
-    <t>دبليو 68 - واق من البقع</t>
-  </si>
-  <si>
-    <t>ستون بلس إيكو - واقي و معزز للألوان</t>
-  </si>
-  <si>
-    <t>فوب إكستريم - حماية لطرد الماء و الزيت</t>
-  </si>
-  <si>
-    <t>هايدروريب إيكو - حماية عازلة للماء</t>
-  </si>
-  <si>
-    <t>بلاط ارضيات جرافل-كريمي-120*60</t>
-  </si>
-  <si>
-    <t>بلاط ارضيات جرافل-ابيض غير لامع -120*60</t>
-  </si>
-  <si>
-    <t>بلاط ارضيات جرافل-ايرث غير لامع-120*60</t>
-  </si>
-  <si>
-    <t>بلاط داخلي - بورسلين جولد نيرو</t>
-  </si>
-  <si>
-    <t>أورجيتال وود 3D</t>
+    <t>قفل خارجي حديد...</t>
+  </si>
+  <si>
+    <t>قفل خزائن ذكي ...</t>
+  </si>
+  <si>
+    <t>قفل ذكي KSR101...</t>
+  </si>
+  <si>
+    <t>قفل ذكي للأبوا...</t>
+  </si>
+  <si>
+    <t>قفل ذكي للابوا...</t>
+  </si>
+  <si>
+    <t>ام بي 90 إيكوإ...</t>
+  </si>
+  <si>
+    <t>بي اس 87 برو -...</t>
+  </si>
+  <si>
+    <t>دبليو 68 - واق...</t>
+  </si>
+  <si>
+    <t>ستون بلس إيكو ...</t>
+  </si>
+  <si>
+    <t>فوب إكستريم - ...</t>
+  </si>
+  <si>
+    <t>هايدروريب إيكو...</t>
+  </si>
+  <si>
+    <t>بلاط ارضيات جر...</t>
+  </si>
+  <si>
+    <t>بلاط داخلي - ب...</t>
+  </si>
+  <si>
+    <t>أورجيتال وود 3...</t>
   </si>
   <si>
     <t>ماربل بورتورو</t>
   </si>
   <si>
-    <t>قطعة برواز بولسترين M059-W</t>
-  </si>
-  <si>
-    <t>قطعة برواز بولسترين M060-W</t>
-  </si>
-  <si>
-    <t>قطعة برواز بولسترين M023-W</t>
-  </si>
-  <si>
-    <t>قطعة برواز بولسترين M021-W</t>
-  </si>
-  <si>
-    <t>قطعة برواز بولسترين M010-W</t>
-  </si>
-  <si>
-    <t>قطعة برواز بولسترين M016-W</t>
-  </si>
-  <si>
-    <t>قطعة برواز بولسترين M017-W</t>
-  </si>
-  <si>
-    <t>قطعة برواز بولسترين M049-W</t>
-  </si>
-  <si>
-    <t>صفاية المنيوم شبك</t>
-  </si>
-  <si>
-    <t>صفاية المنيوم شبك مدهونه</t>
-  </si>
-  <si>
-    <t>غطاء المنيوم عمق 2 سم</t>
-  </si>
-  <si>
-    <t>غطاء المنيوم مع صاج مبزر</t>
-  </si>
-  <si>
-    <t>غطاء تفتيش موديل A</t>
-  </si>
-  <si>
-    <t>غطاء تفتيش موديل C</t>
-  </si>
-  <si>
-    <t>مجرى تصريف عرض 12 سم</t>
-  </si>
-  <si>
-    <t>مجرى تصريف عرض 20 سم</t>
-  </si>
-  <si>
-    <t>مجرى تصريف نموذج A عرض 15 سم</t>
-  </si>
-  <si>
-    <t>مجرى تصريف نموذج H عرض 15 سم</t>
-  </si>
-  <si>
-    <t>حوض فايبر أسمنتي 147 رصاصى 56*56*41</t>
-  </si>
-  <si>
-    <t>حوض فايبر أسمنتي 147 رصاصى 37*37*29</t>
-  </si>
-  <si>
-    <t>حوض فايبر أسمنتي 147 رصاصى 23*23*18</t>
-  </si>
-  <si>
-    <t>حوض فايبر أسمنتي 133 أسود 50*50*55</t>
-  </si>
-  <si>
-    <t>حوض فايبر أسمنتي 133 أسود 38*38*42</t>
-  </si>
-  <si>
-    <t>حوض فايبر أسمنتي 133 أسود 28*28*30</t>
-  </si>
-  <si>
-    <t>حوض فايبر أسمنتي 132 أسود 55*55*34</t>
-  </si>
-  <si>
-    <t>حوض فايبر أسمنتي 132 أسود 45*45*28</t>
-  </si>
-  <si>
-    <t>حوض فايبر أسمنتي 132 أسود 35*35*23</t>
-  </si>
-  <si>
-    <t>حوض فايبر أسمنتي 056 رصاصى * ابيض 50*50*50</t>
-  </si>
-  <si>
-    <t>خشب البلوط اوك</t>
+    <t>قطعة برواز بول...</t>
+  </si>
+  <si>
+    <t>صفاية المنيوم ...</t>
+  </si>
+  <si>
+    <t>غطاء المنيوم ع...</t>
+  </si>
+  <si>
+    <t>غطاء المنيوم م...</t>
+  </si>
+  <si>
+    <t>غطاء تفتيش مود...</t>
+  </si>
+  <si>
+    <t>مجرى تصريف عرض...</t>
+  </si>
+  <si>
+    <t>مجرى تصريف نمو...</t>
+  </si>
+  <si>
+    <t>حوض فايبر أسمن...</t>
+  </si>
+  <si>
+    <t>خشب البلوط اوك...</t>
   </si>
   <si>
     <t>خشب شيري</t>
   </si>
   <si>
-    <t>خشب سويدي رابع</t>
+    <t>خشب سويدي رابع...</t>
   </si>
   <si>
     <t>خشب ميرانتي</t>
@@ -367,7 +253,7 @@
     <t>خشب الواوا</t>
   </si>
   <si>
-    <t>عازل حراري للاسطح</t>
+    <t>عازل حراري للا...</t>
   </si>
   <si>
     <t>شبك أسوار</t>
@@ -403,31 +289,31 @@
     <t>ديكورات</t>
   </si>
   <si>
-    <t>عوازال و حلول المياه</t>
-  </si>
-  <si>
-    <t>مستلزمات الحدائق</t>
+    <t>عوازال و حلول ...</t>
+  </si>
+  <si>
+    <t>مستلزمات الحدا...</t>
   </si>
   <si>
     <t>مواد البناء</t>
   </si>
   <si>
-    <t>JNB-WA/B4641/1SL+3CO</t>
-  </si>
-  <si>
-    <t>JNB-WA/T3512/1AB</t>
-  </si>
-  <si>
-    <t>JNB-WA/B5116/1CR</t>
-  </si>
-  <si>
-    <t>JNB-WA/B4655/3CO</t>
-  </si>
-  <si>
-    <t>JNB-HA/A4223/6BK+GD+3CO</t>
-  </si>
-  <si>
-    <t>JNB-HA/A4351/6GD+BK</t>
+    <t>JNB-WA/B4641/1...</t>
+  </si>
+  <si>
+    <t>JNB-WA/T3512/1...</t>
+  </si>
+  <si>
+    <t>JNB-WA/B5116/1...</t>
+  </si>
+  <si>
+    <t>JNB-WA/B4655/3...</t>
+  </si>
+  <si>
+    <t>JNB-HA/A4223/6...</t>
+  </si>
+  <si>
+    <t>JNB-HA/A4351/6...</t>
   </si>
   <si>
     <t>JNB-9139/1RD</t>
@@ -436,31 +322,31 @@
     <t>JNB-9139/2RD</t>
   </si>
   <si>
-    <t>JNB-9550/24W/BK+WW</t>
-  </si>
-  <si>
-    <t>JNB-9547/14W/BK+WH</t>
-  </si>
-  <si>
-    <t>ROC-1901467910</t>
+    <t>JNB-9550/24W/B...</t>
+  </si>
+  <si>
+    <t>JNB-9547/14W/B...</t>
+  </si>
+  <si>
+    <t>ROC-1901467910...</t>
   </si>
   <si>
     <t>ROC-389559320</t>
   </si>
   <si>
-    <t>ROC-1693825103</t>
-  </si>
-  <si>
-    <t>ROC-1550235085</t>
-  </si>
-  <si>
-    <t>ROC-1928711390</t>
+    <t>ROC-1693825103...</t>
+  </si>
+  <si>
+    <t>ROC-1550235085...</t>
+  </si>
+  <si>
+    <t>ROC-1928711390...</t>
   </si>
   <si>
     <t>HBM-40344001</t>
   </si>
   <si>
-    <t>ROC-1652852589</t>
+    <t>ROC-1652852589...</t>
   </si>
   <si>
     <t>HBM-BC807XG</t>
@@ -502,22 +388,22 @@
     <t>EIM-2214105</t>
   </si>
   <si>
-    <t>TED-2141272687</t>
-  </si>
-  <si>
-    <t>TED-1511027239</t>
+    <t>TED-2141272687...</t>
+  </si>
+  <si>
+    <t>TED-1511027239...</t>
   </si>
   <si>
     <t>TED-378756215</t>
   </si>
   <si>
-    <t>TED-1981568072</t>
-  </si>
-  <si>
-    <t>TED-1519748830</t>
-  </si>
-  <si>
-    <t>TED-2136537181</t>
+    <t>TED-1981568072...</t>
+  </si>
+  <si>
+    <t>TED-1519748830...</t>
+  </si>
+  <si>
+    <t>TED-2136537181...</t>
   </si>
   <si>
     <t>TED-792463875</t>
@@ -547,49 +433,49 @@
     <t>MUN-12250420</t>
   </si>
   <si>
-    <t>MUN-1225043090300</t>
-  </si>
-  <si>
-    <t>MUN-1225043063200</t>
-  </si>
-  <si>
-    <t>MUN-1225043050112</t>
-  </si>
-  <si>
-    <t>MUN-1225043040114</t>
-  </si>
-  <si>
-    <t>MUN-1225043020034</t>
-  </si>
-  <si>
-    <t>TED-1556568644</t>
-  </si>
-  <si>
-    <t>TED-2022299271</t>
+    <t>MUN-1225043090...</t>
+  </si>
+  <si>
+    <t>MUN-1225043063...</t>
+  </si>
+  <si>
+    <t>MUN-1225043050...</t>
+  </si>
+  <si>
+    <t>MUN-1225043040...</t>
+  </si>
+  <si>
+    <t>MUN-1225043020...</t>
+  </si>
+  <si>
+    <t>TED-1556568644...</t>
+  </si>
+  <si>
+    <t>TED-2022299271...</t>
   </si>
   <si>
     <t>TED-690745261</t>
   </si>
   <si>
-    <t>TED-2048167282</t>
-  </si>
-  <si>
-    <t>TED-2079867994</t>
+    <t>TED-2048167282...</t>
+  </si>
+  <si>
+    <t>TED-2079867994...</t>
   </si>
   <si>
     <t>TED-789800456</t>
   </si>
   <si>
-    <t>TED-1413326256</t>
-  </si>
-  <si>
-    <t>TED-1410969346</t>
-  </si>
-  <si>
-    <t>TED-1373431736</t>
-  </si>
-  <si>
-    <t>TED-1910530529</t>
+    <t>TED-1413326256...</t>
+  </si>
+  <si>
+    <t>TED-1410969346...</t>
+  </si>
+  <si>
+    <t>TED-1373431736...</t>
+  </si>
+  <si>
+    <t>TED-1910530529...</t>
   </si>
   <si>
     <t>FIL-18005</t>
@@ -610,22 +496,22 @@
     <t>FIL-18037</t>
   </si>
   <si>
-    <t>RAT-0008-كريمي-120*60</t>
-  </si>
-  <si>
-    <t>RAT-0008-ابيض غير لامع -120*60</t>
-  </si>
-  <si>
-    <t>RAT-0008-ايرث غير لامع-120*60</t>
+    <t>RAT-0008-كريمي...</t>
+  </si>
+  <si>
+    <t>RAT-0008-ابيض ...</t>
+  </si>
+  <si>
+    <t>RAT-0008-ايرث ...</t>
   </si>
   <si>
     <t>RAT-0003</t>
   </si>
   <si>
-    <t>GBS-Original-Wood-089O-</t>
-  </si>
-  <si>
-    <t>GBS- Marble-Portoro-Slab</t>
+    <t>GBS-Original-W...</t>
+  </si>
+  <si>
+    <t>GBS- Marble-Po...</t>
   </si>
   <si>
     <t>DOC-2336</t>
@@ -1045,493 +931,304 @@
     <t>37.95 ريال</t>
   </si>
   <si>
-    <t>العلامة التجارية  همر</t>
-  </si>
-  <si>
-    <t>رقم الموديل  05A0B90C00 - 525869403 - 526306434</t>
-  </si>
-  <si>
-    <t>رقم الموديل  05A7625C00</t>
-  </si>
-  <si>
-    <t>رقم الموديل  A34S999000</t>
-  </si>
-  <si>
-    <t>رقم الموديل  A34S478000</t>
-  </si>
-  <si>
-    <t>بلد الصنع  اسبانيا  رقم الموديل  327475000 - 337470000</t>
-  </si>
-  <si>
-    <t>رقم الموديل  A816619001</t>
-  </si>
-  <si>
-    <t>العلامة التجارية  ماكيتا  تفاصيل المنتج  Spare parts Makita  رقم الموديل  516808-7</t>
-  </si>
-  <si>
-    <t>العلامة التجارية  ماكيتا  تفاصيل المنتج  إزميل  معلومات فنية  نوع الساق / لمطارق SDS-PLUS الإزميل / نقطة مركزية ممتازة الطول (مم) / 250 العرض (مم) / 20  رقم الموديل  B-64244</t>
-  </si>
-  <si>
-    <t>العلامة التجارية  ماكيتا  تفاصيل المنتج  Accessories  معلومات فنية  رقم / 1 قطر العجلة (مم) / 6 حجم الساق (مم) / 3 مادة الجلخ / A العدد / 10  رقم الموديل  794051-0</t>
-  </si>
-  <si>
-    <t>العلامة التجارية  ماكيتا  تفاصيل المنتج  Accessories  رقم الموديل  D-03931</t>
-  </si>
-  <si>
-    <t>العلامة التجارية  ماكيتا  تفاصيل المنتج  Jig Saw Blade  معلومات فنية  الرقم / 10 الخشب الرقيق (مم) / 4-50 البلاستيك (مم) / 4-50 طول التشغيل (مم) / 60 السن لكل بوصة / 9 نوع الشفرة / HCS العدد / 5  رقم الموديل  A-85818</t>
-  </si>
-  <si>
-    <t>العلامة التجارية  ماكيتا  تفاصيل المنتج  مفتاح رأس مثقاب  معلومات فنية  حجم عامود الدوران / 1/2"- 20 UNF  رقم الموديل  763432-9</t>
-  </si>
-  <si>
-    <t>العلامة التجارية  ماكيتا  تفاصيل المنتج  Spare parts Makita  رقم الموديل  524709-5/240</t>
-  </si>
-  <si>
-    <t>العلامة التجارية  ماكيتا  تفاصيل المنتج  برغي  معلومات فنية  المقاس / M5X30  رقم الموديل  251867-1</t>
-  </si>
-  <si>
-    <t>العلامة التجارية  ماكيتا  تفاصيل المنتج  بيت محرك  رقم الموديل  154989-5</t>
-  </si>
-  <si>
-    <t>العلامة التجارية  ريدجيد  تفاصيل المنتج  قاطع أنابيب يدوي  معلومات فنية  القطع / الألومنيوم والنحاس والنحاس والفولاذ رقيق الجدار قدرة القطع / 1 بوصة إلى 3-1 / 8 بوصة الطول الإجمالي / 12 1/2 بوصة قطع العمل / دليل مادة الجسم / الحديد مادة الشفرة / الفولاذ المشكل التعامل مع التصميم / مريح الميزات / طي مخروط عجلة الاستبدال / Mfr. رقم E-2558/33170 يتضمن / قطع غيار عجلة  رقم الموديل  32940</t>
-  </si>
-  <si>
-    <t>العلامة التجارية  ستوني  تفاصيل المنتج  مثقاب يدوي  معلومات فنية  ابعاد الظرف / ماكس 13 مم الطول / 324 مم الوزن / 1060 جم  رقم الموديل  18157213</t>
-  </si>
-  <si>
-    <t>العلامة التجارية  المنيف للأنابيب  تفاصيل المنتج  ملاحظة : الحد الادنى للشراء 5 وحدات فما فوق .</t>
-  </si>
-  <si>
-    <t>المقاس  90x3  العلامة التجارية  المنيف للأنابيب  تفاصيل المنتج  ملاحظة : الحد الادنى للشراء 5 وحدات فما فوق .</t>
-  </si>
-  <si>
-    <t>المقاس  63x2  العلامة التجارية  المنيف للأنابيب  تفاصيل المنتج  ملاحظة : الحد الادنى للشراء 5 وحدات فما فوق .</t>
-  </si>
-  <si>
-    <t>المقاس  50x11/2  العلامة التجارية  المنيف للأنابيب  تفاصيل المنتج  ملاحظة : الحد الادنى للشراء 5 وحدات فما فوق .</t>
-  </si>
-  <si>
-    <t>المقاس  40x11/4  العلامة التجارية  المنيف للأنابيب  تفاصيل المنتج  ملاحظة : الحد الادنى للشراء 5 وحدات فما فوق .</t>
-  </si>
-  <si>
-    <t>المقاس  20x3/4  العلامة التجارية  المنيف للأنابيب  تفاصيل المنتج  ملاحظة : الحد الادنى للشراء 5 وحدات فما فوق .</t>
-  </si>
-  <si>
-    <t>تفاصيل المنتج  ملاحظة : الحد الادنى للشراء 5 وحدات فما فوق .  رقم الموديل  8008980613052</t>
-  </si>
-  <si>
-    <t>تفاصيل المنتج  ملاحظة : الحد الادنى للشراء 5 وحدات فما فوق .  رقم الموديل  8008980530007</t>
-  </si>
-  <si>
-    <t>تفاصيل المنتج  ملاحظة : الحد الادنى للشراء 5 وحدات فما فوق .  رقم الموديل  8008980710058</t>
-  </si>
-  <si>
-    <t>تفاصيل المنتج  ملاحظة : الحد الادنى للشراء 5 وحدات فما فوق .  رقم الموديل  8008980623006</t>
-  </si>
-  <si>
-    <t>تفاصيل المنتج  ملاحظة : الحد الادنى للشراء 5 وحدات فما فوق .  رقم الموديل  8008980660056</t>
-  </si>
-  <si>
-    <t>تفاصيل المنتج  ملاحظة : الحد الادنى للشراء 5 وحدات فما فوق .  رقم الموديل  8008980707256</t>
-  </si>
-  <si>
-    <t>المقاس  120*60  العلامة التجارية  أرجنتا  اللون  كريمي  تفاصيل المنتج  السعر الموضح أعلاه للمتر المربع الواحد</t>
-  </si>
-  <si>
-    <t>المقاس  120*60  العلامة التجارية  أرجنتا  اللون  ابيض غير لامع  تفاصيل المنتج  السعر الموضح أعلاه للمتر المربع الواحد</t>
-  </si>
-  <si>
-    <t>المقاس  120*60  العلامة التجارية  أرجنتا  اللون  ايرث غير لامع  تفاصيل المنتج  السعر الموضح أعلاه للمتر المربع الواحد</t>
-  </si>
-  <si>
-    <t>بلد الصنع  ايطاليا  المقاس  120*60 سم  العلامة التجارية  أرجنتا  اللون  أسود  تفاصيل المنتج  السعر الموضح أعلاه للمتر المربع الواحد</t>
-  </si>
-  <si>
-    <t>المقاس  135*300 سم  الضمان  عشرة سنوات  مقاس اللوح  135*300 سم  تفاصيل المنتج  منتجات الجيل الثالث ( طباعة ثلاثية الأبعاد ) ملاحظة : الأسعار و الكميات تحسب بالمتر المربع لهذا المنتج . اقل كمية متاحة للشراء 50 م مربع فما فوق .</t>
-  </si>
-  <si>
-    <t>المقاس  240*120 سم  الضمان  عشرة سنوات  مقاس اللوح  240*120 سم  تفاصيل المنتج  منتجات الجيل الثالث ( طباعة ثلاثية الأبعاد ) ملاحظة : الأسعار و الكميات تحسب بالمتر المربع لهذا المنتج . اقل كمية متاحة للشراء 50 م مربع فما فوق .</t>
-  </si>
-  <si>
-    <t>مقاس اللوح  20(سماكة)*150(عرض)*2400(طول) مم  تفاصيل المنتج  فوم هو منتج ديكور بمظهر جميل وجذاب و تصميم عصري  و يستخدم بتغطية  كبرواز للجدران والاعمدة  باشكال واحجام متنوعة</t>
-  </si>
-  <si>
-    <t>العلامة التجارية  MIGA  مقاس اللوح  15(سماكة)*100(عرض)*2400(طول) مم  تفاصيل المنتج  فوم هو منتج ديكور بمظهر جميل وجذاب و تصميم عصري  و يستخدم بتغطية  كبرواز للجدران والاعمدة  باشكال واحجام متنوعة</t>
-  </si>
-  <si>
-    <t>العلامة التجارية  MIGA  مقاس اللوح  12(سماكة)*95(عرض)*2400(طول) مم  تفاصيل المنتج  فوم هو منتج ديكور بمظهر جميل وجذاب و تصميم عصري  و يستخدم بتغطية  كبرواز للجدران والاعمدة  باشكال واحجام متنوعة</t>
-  </si>
-  <si>
-    <t>العلامة التجارية  MIGA  مقاس اللوح  10(سماكة)*70(عرض)*2400(طول) مم  تفاصيل المنتج  فوم هو منتج ديكور بمظهر جميل وجذاب و تصميم عصري  و يستخدم بتغطية  كبرواز للجدران والاعمدة  باشكال واحجام متنوعة</t>
-  </si>
-  <si>
-    <t>العلامة التجارية  MIGA  مقاس اللوح  6(سماكة)*300(عرض)*2400(طول) مم  تفاصيل المنتج  فوم هو منتج ديكور بمظهر جميل وجذاب و تصميم عصري  و يستخدم بتغطية  كبرواز للجدران والاعمدة  باشكال واحجام متنوعة  خامة المنتج  خشب</t>
-  </si>
-  <si>
-    <t>العلامة التجارية  MIGA  تفاصيل المنتج  فوم هو منتج ديكور بمظهر جميل وجذاب و تصميم عصري  و يستخدم بتغطية  كبرواز للجدران والاعمدة  باشكال واحجام متنوعة</t>
-  </si>
-  <si>
-    <t>العلامة التجارية  MIGA  مقاس اللوح  13(سماكة)*22(عرض)*2400(طول) مم  تفاصيل المنتج  فوم هو منتج ديكور بمظهر جميل وجذاب و تصميم عصري  و يستخدم بتغطية  كبرواز للجدران والاعمدة  باشكال واحجام متنوعة</t>
-  </si>
-  <si>
-    <t>العلامة التجارية  MIGA  مقاس اللوح  19(سماكة)*38(عرض)*2400(طول) مم  تفاصيل المنتج  فوم هو منتج ديكور بمظهر جميل وجذاب و تصميم عصري  و يستخدم بتغطية  كبرواز للجدران والاعمدة  باشكال واحجام متنوعة</t>
-  </si>
-  <si>
-    <t>المقاس  6بوصه  تفاصيل المنتج  المنيوم بالكامل غير مدهون</t>
-  </si>
-  <si>
-    <t>المقاس  70*70  تفاصيل المنتج  المنيوم بالكامل صاج المنيوم سماكة 2 ملم عمق 20 ملم مطاط EPDM</t>
-  </si>
-  <si>
-    <t>المقاس  100*100  تفاصيل المنتج  المنيوم بالكامل صاج المنيوم مبزر سماكة 2 ملم ارتفاع 60 ملم مطاط EPDM مزدوج</t>
-  </si>
-  <si>
-    <t>المقاس  120*120 بابين  تفاصيل المنتج  المنيوم بالكامل صاج المنيوم سماكة 2 ملم عمق 44 ملم -ارتفاع 60 ملم مطاط EPDM مزدوج</t>
-  </si>
-  <si>
-    <t>المقاس  50*50  تفاصيل المنتج  المنيوم بالكامل صاج المنيوم سماكة 2 ملم عمق 30 ملم</t>
-  </si>
-  <si>
-    <t>العلامة التجارية  المنيوم الصالح  تفاصيل المنتج  المنيوم بالكامل عمق 10 سم سدة/مخرج 2 بوصة المنيوم</t>
-  </si>
-  <si>
-    <t>المقاس  3 متر  تفاصيل المنتج  المنيوم بالكامل عمق 10 سم سدة/مخرج4 بوصة المنيوم</t>
-  </si>
-  <si>
-    <t>المقاس  3 متر  تفاصيل المنتج  المنيوم بالكامل عمق 10 سم سدة/مخرج 3 بوصة المنيوم</t>
-  </si>
-  <si>
-    <t>اللون  رصاصي  تفاصيل المنتج  احواض زراعية عصرية ومميزة  خامة المنتج  فايبر إسمنتي  الإرتفاع (سم)  56  الطول (سم)  41  العرض (سم)  56  عدد القطع  1</t>
-  </si>
-  <si>
-    <t>اللون  رصاصي  تفاصيل المنتج  احواض زراعية عصرية ومميزة  خامة المنتج  فايبر إسمنتي  الإرتفاع (سم)  37  الطول (سم)  29  العرض (سم)  37  عدد القطع  1</t>
-  </si>
-  <si>
-    <t>اللون  رصاصي  تفاصيل المنتج  احواض زراعية عصرية ومميزة  خامة المنتج  فايبر إسمنتي  الإرتفاع (سم)  23  الطول (سم)  18  العرض (سم)  23  عدد القطع  1</t>
-  </si>
-  <si>
-    <t>اللون  أسود  تفاصيل المنتج  احواض زراعية عصرية ومميزة  خامة المنتج  فايبر إسمنتي  الإرتفاع (سم)  50  الطول (سم)  50  العرض (سم)  50  عدد القطع  1</t>
-  </si>
-  <si>
-    <t>اللون  أسود  تفاصيل المنتج  احواض زراعية عصرية ومميزة  خامة المنتج  فايبر إسمنتي  الإرتفاع (سم)  38  الطول (سم)  42  العرض (سم)  38  عدد القطع  1</t>
-  </si>
-  <si>
-    <t>اللون  أسود  تفاصيل المنتج  احواض زراعية عصرية ومميزة  خامة المنتج  فايبر إسمنتي  الإرتفاع (سم)  28  الطول (سم)  30  العرض (سم)  28  عدد القطع  1</t>
-  </si>
-  <si>
-    <t>اللون  أسود  تفاصيل المنتج  احواض زراعية عصرية ومميزة  خامة المنتج  فايبر إسمنتي  الإرتفاع (سم)  55  الطول (سم)  34  العرض (سم)  55  عدد القطع  1</t>
-  </si>
-  <si>
-    <t>اللون  أسود  تفاصيل المنتج  احواض زراعية عصرية ومميزة  خامة المنتج  فايبر إسمنتي  الإرتفاع (سم)  45  الطول (سم)  28  العرض (سم)  45  عدد القطع  1</t>
-  </si>
-  <si>
-    <t>اللون  أسود  تفاصيل المنتج  احواض زراعية عصرية ومميزة  خامة المنتج  فايبر إسمنتي  الإرتفاع (سم)  35  الطول (سم)  23  العرض (سم)  35  عدد القطع  1</t>
-  </si>
-  <si>
-    <t>اللون  رصاصي*ابيض  تفاصيل المنتج  احواض زراعية عصرية ومميزة  خامة المنتج  فايبر إسمنتي  الإرتفاع (سم)  50  الطول (سم)  50  العرض (سم)  50  عدد القطع  1</t>
-  </si>
-  <si>
-    <t>تفاصيل المنتج  عازل حراري للأسطح لوح العزل XPS عبارة عن مادة عزل حراري عالية الأداء تُستخدم في مجموعة متنوعة من التطبيقات. يوفر لوح الرغوة ذو الخلية المغلقة خصائص عزل فائقة ومقاومة استثنائية للرطوبة ، مما يجعله خيارًا مثاليًا لكل من المشاريع السكنية والتجارية.</t>
-  </si>
-  <si>
-    <t>المقاس  20مم  25مم  32مم</t>
-  </si>
-  <si>
-    <t>المقاس  20x1/2  25x1/2  25x3/4  32x1  40x11/4  50x11/2  63x2  75x21/2  90x3  110x4</t>
-  </si>
-  <si>
-    <t>المقاس  20x1/2  20x3/4  25x1/2  25x3/4  32x1/2  32x1  32x3/4</t>
-  </si>
-  <si>
-    <t>المقاس  3 متر</t>
-  </si>
-  <si>
-    <t>العرض ملم  600ملم  السماكة  30ملم  50ملم  100ملم  العلامة التجارية  سابتكس  ارنون  الخليج  فابكو  الطول ملم  1250ملم</t>
-  </si>
-  <si>
-    <t>اسم المنتج الكمية  خشب اوك 2بوصه - عادي 4,140.00 ريال  خشب اوك 3بوصه - عادي 4,140.00 ريال  خشب اوك 1بوصه - مجفف 4,312.50 ريال  خشب اوك 2بوصه - مجفف 5,520.00 ريال</t>
-  </si>
-  <si>
-    <t>اسم المنتج الكمية  خشب شيري 2بوصه - مجفف 4,830.00 ريال</t>
-  </si>
-  <si>
-    <t>اسم المنتج الكمية  خشب سويدي رابع 2 * 8بوصه 1,955.00 ريال  خشب سويدي رابع 2 * 9بوصه 1,782.50 ريال  خشب سويدي رابع 2 * 10بوصه 2,070.00 ريال</t>
-  </si>
-  <si>
-    <t>اسم المنتج الكمية  خشب ميرانتي 2 * 8بوصه - مجفف 3,450.00 ريال  خشب ميرانتي 2 * 9بوصه - مجفف 3,565.00 ريال  خشب ميرانتي 2 * 10بوصه - مجفف 3,910.00 ريال  خشب ميرانتي 2 * 12بوصه - مجفف 3,910.00 ريال  خشب ميرانتي 3 * 8بوصه - مجفف 4,025.00 ريال  خشب ميرانتي 3 * 10بوصه - مجفف 4,255.00 ريال</t>
-  </si>
-  <si>
-    <t>اسم المنتج الكمية  خشب زان 2بوصه - مجفف 3,680.00 ريال  خشب زان 8سم - مجفف 4,025.00 ريال  خشب زان 2بوصه - مجفف - كرواتيا 2,932.50 ريال</t>
-  </si>
-  <si>
-    <t>اسم المنتج الكمية  خشب الواوا 2بوصه - مجفف 3,599.50 ريال  خشب الواوا 3بوصه - مجفف 3,599.50 ريال</t>
-  </si>
-  <si>
-    <t>اسم المنتج الكمية  شبك مزارع 2 * 15 * 3مم (60 * 60) 310.01 ريال  شبك مزارع 2 * 15 * 2.6مم (70 * 70) 166.75 ريال</t>
-  </si>
-  <si>
-    <t>اسم المنتج الكمية  شينكو زينك 0.35مم * 1 * 1متر 37.95 ريال  شينكو زينك 0.35مم * 1 * 2.5متر 47.44 ريال  شينكو زينك 0.35مم * 1 * 3متر 56.93 ريال  شينكو زينك 0.35مم * 1 * 3.5متر 66.41 ريال  شينكو زينك 0.35مم * 1 * 4متر 75.90 ريال  شينكو زينك 0.35مم * 1 * 4.5متر 85.39 ريال  شينكو زينك 0.35مم * 1 * 5متر 94.88 ريال  شينكو زينك 0.35مم * 1 * 5.5متر 104.36 ريال  شينكو زينك 0.35مم * 1 * 6متر 113.85 ريال  شينكو زينك 0.35مم * 1 * 6.5متر 123.34 ريال  شينكو زينك 0.35مم * 1 * 7متر 132.83 ريال  شينكو زينك 0.32مم * 1 * 1متر 17.83 ريال  شينكو زينك 0.32مم * 1 * 1.5متر 26.74 ريال  شينكو زينك 0.32مم * 1 * 2متر 35.65 ريال  شينكو زينك 0.32مم * 1 * 2.5متر 44.56 ريال  شينكو زينك 0.32مم * 1 * 3متر 53.48 ريال  شينكو زينك 0.32مم * 1 * 3.5متر 62.39 ريال  شينكو زينك 0.32مم * 1 * 4متر 71.30 ريال  شينكو زينك 0.32مم * 1 * 4.5متر 80.21 ريال  شينكو زينك 0.32مم * 1 * 5متر 89.13 ريال  شينكو زينك 0.32مم * 1 * 5.5متر 98.04 ريال  شينكو زينك 0.32مم * 1 * 6متر 106.95 ريال  شينكو زينك 0.32مم * 1 * 6.5متر 115.86 ريال  شينكو زينك 0.32مم * 1 * 7متر 124.78 ريال  شينكو زينك 0.32مم * 1 * 7.5متر 133.69 ريال  شينكو زينك 0.32مم * 1 * 8.5متر 151.51 ريال</t>
-  </si>
-  <si>
-    <t>اسم المنتج الكمية  مواسير حديد 0.5بوصه * 1.2مم * 6متر 14.95 ريال  مواسير حديد 0.5" * 1.5مم * 6متر 18.98 ريال  مواسير حديد 0.75بوصه * 1.2مم * 6متر 17.83 ريال  مواسير حديد 0.75بوصه * 1.5مم * 6متر 24.15 ريال  مواسير حديد 1.0بوصه * 1.2مم * 6متر 21.85 ريال  مواسير حديد 1بوصه * 1.5مم * 6متر 31.05 ريال  مواسير حديد 1بوصه * 2مم * 6متر 41.40 ريال  مواسير حديد 1بوصه * 3مم * 6متر 62.10 ريال  مواسير حديد 1.25بوصه * 1.2مم * 6متر 28.75 ريال  مواسير حديد 1.25بوصه * 1.5مم * 6متر 39.68 ريال  مواسير حديد 1.5بوصه * 1.2مم * 6متر 33.35 ريال  مواسير حديد 1.5بوصه * 1.5مم * 6متر 45.43 ريال  مواسير حديد 1.5بوصه * 2مم * 6متر 60.38 ريال  مواسير حديد 1.5بوصه * 3مم * 6متر 90.85 ريال  مواسير حديد 2بوصه * 1.2مم * 6متر 39.10 ريال  مواسير حديد 2بوصه * 1.5مم * 6متر 57.50 ريال  مواسير حديد 2" * 1.8مم * 6متر 67.85 ريال  مواسير حديد 2بوصه * 2مم * 6متر 75.90 ريال  مواسير حديد 2بوصه * 3مم * 6متر 113.85 ريال  مواسير حديد 2.5بوصه * 1.2مم * 6متر 51.75 ريال  مواسير حديد 2.5" * 3مم * 6متر 142.60 ريال  مواسير حديد 3بوصه * 1.20مم * 6متر 59.80 ريال  مواسير حديد 3بوصه * 1.50مم * 6متر 83.95 ريال  مواسير حديد 3بوصه * 2مم * 6متر 111.55 ريال  مواسير حديد 3بوصه * 3مم * 6متر 166.75 ريال  مواسير حديد 4بوصه * 1.5مم * 6متر 106.95 ريال  مواسير حديد 4" * 2مم * 6متر 141.45 ريال  مواسير حديد 4بوصه * 3مم * 6متر 212.75 ريال  مواسير حديد 1.0بوصه * 6متر - ضغط 40 82.80 ريال  مواسير حديد 1.5بوصه * 6متر - ضغط 40 134.14 ريال  مواسير حديد 2بوصه * 6متر - ضغط 40 180.17 ريال  مواسير حديد 2.5بوصه * 6متر - ضغط 40 285.82 ريال  مواسير حديد 3بوصه * 6متر - ضغط 40 373.92 ريال  مواسير حديد 4بوصه * 6متر - ضغط 40 532.57 ريال  مواسير حديد 6بوصه * 6متر - ضغط 40 935.97 ريال</t>
-  </si>
-  <si>
-    <t>تفاصيل الانارة::لون الانارة::3اضاءات متغيرة ( كريمي + اصفر + ابيض ) تفاصيل الضمان::عدد سنوات الضمان::2 سنة تفاصيل الانارة::درجة حرارة اللون (الكلفن)::3000K + 4000K +8000K تفاصيل المنتج::الجهد الكهربائي::AC220-240V تفاصيل الانارة::مقاس قاعدة الانارة::LED إضاءة تفاصيل المنتج::لون الغطاء::ذهبي تفاصيل المنتج::نوع التركيب::مثبت على الحائط تفاصيل الانارة::نوع الإضاءة::ليد LED</t>
-  </si>
-  <si>
-    <t>تفاصيل الانارة::لون الانارة::مصباح تركيب تفاصيل المنتج::ابعاد المنتج::- تفاصيل الانارة::مقاس قاعدة الانارة::E14 تفاصيل المنتج::لون الغطاء::ذهبي مصفر تفاصيل المنتج::نوع التركيب::مثبت على الحائط تفاصيل الانارة::نوع الإضاءة::هذا المنتج لا يحتوي على مصباح</t>
-  </si>
-  <si>
-    <t>تفاصيل الانارة::لون الانارة::مصباح تركيب تفاصيل المنتج::ابعاد المنتج::- تفاصيل الانارة::مقاس قاعدة الانارة::- تفاصيل المنتج::لون الغطاء::روز ذهبي مصفر تفاصيل المنتج::نوع التركيب::مثبت على الجدار تفاصيل الانارة::نوع الإضاءة::هذا المنتج لا يحتوي على مصباح</t>
-  </si>
-  <si>
-    <t>تفاصيل الانارة::لون الانارة::3اضاءات متغيرة ( كريمي + اصفر + ابيض ) تفاصيل الضمان::عدد سنوات الضمان::2 سنة تفاصيل الانارة::درجة حرارة اللون (الكلفن)::3000K + 4000K +8000K تفاصيل المنتج::الجهد الكهربائي::AC220-240V تفاصيل الانارة::مقاس قاعدة الانارة::LED إضاءة تفاصيل المنتج::لون الغطاء::ذهبي تفاصيل المنتج::نوع التركيب::مثبت على السقف تفاصيل الانارة::نوع الإضاءة::ليد LED</t>
-  </si>
-  <si>
-    <t>تفاصيل الانارة::لون الانارة::مصباح تركيب تفاصيل المنتج::ابعاد المنتج::قطر 720* ارتفاع 500 مم تفاصيل الانارة::مقاس قاعدة الانارة::E14 تفاصيل المنتج::لون الغطاء::ذهبي تفاصيل المنتج::نوع التركيب::مثبت على السقف تفاصيل الانارة::نوع الإضاءة::هذا المنتج لا يحتوي على مصباح</t>
-  </si>
-  <si>
-    <t>تفاصيل الانارة::لون الانارة::مصباح تركيب تفاصيل المنتج::ابعاد المنتج::- تفاصيل الانارة::عدد اللمبات للمنتج::1 تفاصيل الانارة::مقاس قاعدة الانارة::E27 تفاصيل المنتج::لون الغطاء::احمر تفاصيل المنتج::نوع التركيب::حائط تفاصيل الانارة::نوع الإضاءة::هذا المنتج لا يحتوي على مصباح تفاصيل المنتج::المنتج يعمل على::كهرباء مباشر</t>
-  </si>
-  <si>
-    <t>تفاصيل الانارة::لون الانارة::مصباح تركيب تفاصيل المنتج::ابعاد المنتج::- تفاصيل الانارة::عدد اللمبات للمنتج::2 تفاصيل الانارة::مقاس قاعدة الانارة::E27 تفاصيل المنتج::لون الغطاء::احمر تفاصيل المنتج::نوع التركيب::حائط تفاصيل الانارة::نوع الإضاءة::هذا المنتج لا يحتوي على مصباح تفاصيل المنتج::المنتج يعمل على::كهرباء مباشر</t>
-  </si>
-  <si>
-    <t>تفاصيل الانارة::لون الانارة::اصفر تفاصيل الضمان::عدد سنوات الضمان::2 سنة تفاصيل الانارة::درجة حرارة اللون (الكلفن)::3000K مواصفات أخرى::مقاومة عالية للظروف الخارجية::نعم تفاصيل المنتج::الجهد الكهربائي::220V تفاصيل الانارة::القدرة::24 واط تفاصيل المنتج::لون الغطاء::اسود تفاصيل المنتج::نوع التركيب::حائط تفاصيل الانارة::نوع الإضاءة::LED تفاصيل المنتج::المنتج يعمل على::كهرباء مباشر</t>
-  </si>
-  <si>
-    <t>تفاصيل الانارة::لون الانارة::ابيض تفاصيل الضمان::عدد سنوات الضمان::2 سنة تفاصيل الانارة::درجة حرارة اللون (الكلفن)::8000K مواصفات أخرى::مقاومة عالية للظروف الخارجية::نعم تفاصيل المنتج::الجهد الكهربائي::220V تفاصيل الانارة::القدرة::14 واط تفاصيل المنتج::لون الغطاء::اسود تفاصيل المنتج::نوع التركيب::حائط تفاصيل الانارة::نوع الإضاءة::LED تفاصيل المنتج::المنتج يعمل على::كهرباء مباشر</t>
-  </si>
-  <si>
-    <t>خلاط بانيو اطلس ان من روكا  خلاط دفن  بقسام وصباب  اللون : كروم  المقاسات متوفره في الصور</t>
-  </si>
-  <si>
-    <t>خلاط مطبخ فكتوريا ان من روكا  لون كروم  المقاسات مرفقة في الصور</t>
-  </si>
-  <si>
-    <t>كرسي من ديبا  كرسي ارضي  اللون الابيض  المقاسات متوفره في الصور</t>
-  </si>
-  <si>
-    <t>كرسي ذا جاب  كرسي ارضي  اللون الابيض  المقاسات متوفره في الصور</t>
-  </si>
-  <si>
-    <t>مغسلة ذا جاب  المقاس موضح في الصوره  بدون خلاط</t>
-  </si>
-  <si>
-    <t>طقم اكسسوارات ماستر 5 قطع مصنوع من المعدن مطلي كروم و الزجاج حلق تعليق منشفة علاقة مناشف طول 60سم علاقة ملابس وراقة صبانة</t>
-  </si>
-  <si>
-    <t>مجموعة طقم اكسسوارات حمام  يتكون من 6 قطع من روكا</t>
-  </si>
-  <si>
-    <t>مولتي سوت مخرج سماعة للتأثيث المخفي داخل الجدار شكل دائري مع حامل للسماعة مخرج 1/2" قاعدة التثبيت مقاس 5.7سم بروز عن الجدار 5.8سم مطلي كروم</t>
-  </si>
-  <si>
-    <t>مولتي سوت مخرج سماعة للتأثيث المخفي داخل الجدار شكل دائري مخرج 1/2" قاعدة التثبيت مقاس 5.7سم بروز عن الجدار 5.8سم مطلي أسود مطفي</t>
-  </si>
-  <si>
-    <t>كونكا مخرج سماعة للتأثيث المخفي داخل الجدار شكل مربع مخرج 1/2" رداد بروز عن الجدار 3.8سم</t>
-  </si>
-  <si>
-    <t>لايتطلب إعادة الشحذ من الممكن هدم الخرسانة لفترة أطول - مناسب لمصممي الديكور الداخلي والبناة وعامال البناء - يستخدم مع مطارق SDS-PLUS و SDS-MAX</t>
-  </si>
-  <si>
-    <t>للموديلات / 906H, GD0600, GD0602, GD0800C, GD0810C, DGD800 مادة كاشطة - لجلخ الفولاذ الطري ، الفولاذ الكربوني ، إلخ - لجلخ الفولاذ المقاسي والخاص</t>
-  </si>
-  <si>
-    <t>الاستخدام الموصى به / القطع المتقاطع والتشقق ، الخشب ، نجارة ، النجارة وصناعة الخزانات شفرة / 235 ملم ملائم للموديلات / N5900B (تجويف) قطر الفتحة (مم) / 30 مقاس الحلقة / 25 سمك الطرف (مم) / 2.4 زاوية الخطاف (درجة) / 18 عدد الأسنان / 48 الأسنان / ATB التطبيق / خشب</t>
-  </si>
-  <si>
-    <t>للموديلات / 4300BA/BV, 4326M, 4327M - - لإنهاء الأعمال بسرعة خاصة في الخشب الرقائقي</t>
-  </si>
-  <si>
-    <t>لقمة تفريز 12 مم النوع / مستقيم</t>
-  </si>
-  <si>
-    <t>للموديلات / 6305، 6301، 6013BR، 6300-4، 8416، 8419B، 8419B2، 8420V ، DP4700 ، HP2000 ، HP2010N ، HP2050N ، HP2050 / F ، HP2070 ، NHP1300S ، NHP1320S</t>
-  </si>
-  <si>
-    <t>للموديل / 3700B , SP6000 , 4403</t>
-  </si>
-  <si>
-    <t>للموديل / 9045B , 9045N</t>
-  </si>
-  <si>
-    <t>الالوان:  SILVER  الماركة:  SKAB</t>
-  </si>
-  <si>
-    <t>الالوان:  BRONZE , SILVER , GOLD  الماركة:  KANGO</t>
-  </si>
-  <si>
-    <t>الالوان:  SN  الماركة:  SKAB  مع مواد  خلي بابك ذكي.</t>
-  </si>
-  <si>
-    <t>قاطع أنابيب يدوي ذو شكل مطوي مخروط  تم تصميم قاطع أنابيب التغذية اللولبي RIGID 32940 متعدد الاستخدامات لعمل قطع مربعة ونظيفة على النحاس والنحاس الأصفر والألمنيوم والفولاذ بجدار رفيع. يتميز قاطع الأنبوب بمقبض X-CEL كبير ومريح يوفر قبضة قوية ، مما يجعل قطع الأنبوب سريعًا وسهلاً. وهي تشتمل على عجلة قاطعة أنابيب عالية الجودة ومُشكلة بدقة (موديل E-2558) من أجل عمر طويل ودقة قص قصوى. تتميز قاطعة الأنابيب والمواسير بقدرة قطع من 1 بوصة إلى 3-1 / 8 بوصة.</t>
-  </si>
-  <si>
-    <t>مثقاب يدوي - ذو مقبض مضاد للانزلاق - تشغيل صلب وسلس - ظرف علوي من الألومنيوم - مضاد للإنزلاق - تصميم مريح</t>
-  </si>
-  <si>
-    <t>حراري - حسر منحني ضغط 25 متي</t>
-  </si>
-  <si>
-    <t>حراري - جلبة بسن داخلي Hexa. 90x3" متي</t>
-  </si>
-  <si>
-    <t>حراري - جلبة بسن داخلي Hexa. 63x2 ضغط 25 متي</t>
-  </si>
-  <si>
-    <t>حراري - جلبة بسن داخلي Hexa. 50x11/2 ضغط 25 متي</t>
-  </si>
-  <si>
-    <t>حراري - جلبة بسن داخلي Hexa. 40x11/4 ضغط 25 متي</t>
-  </si>
-  <si>
-    <t>Gateway G2  هي بوابه لتوصيل وربط الكيلون الالكتروني بالانترنت تعتبر قطعه اضافيه في حال يريد العميل تلقي التنبيهات وفتح الباب عن بعد ومراقبه سجل الدخول  مع مواد خلي بابك ذكي.</t>
-  </si>
-  <si>
-    <t>تعريف المنتج  جهاز التحكم بالدخول من شركة كانجو ذكي ومميز ومقـاوم للعوامـل الخارجـية  يعمـل على مجمـوعـــة مـن خـصائـص الـدخــول بصـمه رقـم سـري كرت تطبيق الجـوال  وأيضــاً يربـط بالانـتـرنت لـه العديــد من المميـزات التي تسـاعدك على تسهيل الدخول  بالتحكم بالاقفـال الكهربائيـة.  مميزات المنتج  سهل الاستخدام سهل التثبيت والبرمجه.  يعمل على تطبيق TTLOCK  مزود بتقنية البلوتوث وامكانيه ربطه بالانترنت عن طريق قطعة G2 .  يمكن تركيبه خارج المنزل القدرة على تحمل العوامل الخارجية.  يمكن ربطه بالعديد من الاقفال الكهربائية مثل كيلون كهرباء(شيزا- يال –ايزو).  يمكن ربطه بالقفيز الكهربائي والكيلون الدفن الكهربائي وأيضا على المغناطيس الكهربائي  مع مواد  خلي بابك ذكي.</t>
-  </si>
-  <si>
-    <t>الالوان:  MSN , GOLD , BLACK  الماركة:  KANGO  مع مواد خلي بابك ذكي.</t>
-  </si>
-  <si>
-    <t>6 أجهزة في جهاز واحد:  قفل باب ذكي يحتوي على 4 أصابع غلق فولاذية.  مسكة باب خارجية أنيقة وعصرية.  جرس باب.  عين سحرية رقمية لمشاهدة من خلف الباب.  جهاز إنذار يقوم بإصدار تنبيه وتصوير أي شخص يحاول العبث بالجهاز.  شاشة رقمية داخلية وخارجية لعرض التاريخ والوقت.  6 طرق لفتح الباب من الخارج:  الرقم السري.  البطاقة الممغنطة.  بصمة الوجه.  بصمة الإصبع.  تطبيق الجوال.  مفتاح عادي للطواريء.  أبرز الخصائص:  إضافة حتى 9 مستخدمين إداريين و 300 مستخدم عادي.  تفعيل خاصية الفتح المزدوج بوجود عدد 2 مستخدمين مختلفين.  منفذ USB خارجي يعطي إمكانية شحن البطارية من الخارج في حالة الطواريء.  أبرز مهام استخدام تطبيق الجوال (WisHome):  متابعة حية لعمليات الفتح والإغلاق.  إمكانية إعادة تسمية كل مستخدم باسمه الشخصي.  عند دق الجرس يتم إرسال صورة الشخص على التطبيق مع إمكانية فتح الباب مباشرة.  الضمان:  ضمان استبدال لمدة سنتين ضد أي عيوب مصنعية، لا يشمل سوء الاستخدام.</t>
-  </si>
-  <si>
-    <t>الالوان:  MSN , GOLD , MBLACK  الماركة:  AKADA  مع مواد خلي بابك ذكي.</t>
-  </si>
-  <si>
-    <t>قفل باب ذكي OD-BL  قفل باب ذكي للأبواب الخارجية للمبنى.  قفل باب ذكي.  شكل أنيق وعصري.  مصنوع من الألمنيوم.  شاشة أرقام ديجيتال.  توجيهات صوتية.  5 طرق لفتح الباب من الخارج:  الرقم السري.  البطاقة الممغنطة.  بصمة الإصبع.  تطبيق الجوال.  مفتاح عادي للطواريء.  أبرز المزايا:  جودة عالية جداً (درجة أولى).  مقاوم للماء والرطوبة والغبار.  يعمل ب 4 بطاريات ليثيوم AA ويمكن استخدام البطاريات المتنقلة عبر منفذ (USB) في حال الطواريء.  يمكن توصيل الجهاز بالكهرباء بدلاً عن البطاريات (عن طريق محول 12V DC).  ربط الجهاز بالتطبيق عبر الواي فاي مباشرة دون الحاجة لإضافة أجهزة أخرى.  إمكانية التحكم بالجهاز عن طريق تطبيق الجوال (Tuya App).  إضافة حتى 300 مستخدم.  إمكانية ربط الجهاز مع جهاز انتركوم المنزلي (قد لا يتوافق مع بعض الأنظمة).  يقبل الفتح على الجهتين (يمين / يسار).  أبرز مهام استخدام تطبيق الجوال (Tuya App):  فتح قفل الباب من التطبيق مباشرة.  مشاهدة تاريخ الاستخدام السابق.  إدارة المستخدمين.  الضمان:  ضمان استبدال لمدة سنتين ضد أي عيوب مصنعية، لا يشمل سوء الاستخدام.  محتويات الجهاز تشمل المسكة الخارجية والمسكة الداخلية وصمام القفل الداخلي.  يشمل على البطاريات فقط في حال طلب خدمة التركيب.  عند طلب خدمة التركيب، لا يشمل توصيل الجهاز بالانتركوم (من اختصاص مهندس كهربائي).  يمكن تركيبه على أي نوع باب خارجي، خشب، حديد، ألمونيوم. ستانلس ستيل.</t>
-  </si>
-  <si>
-    <t>قفل خزائن ذكي Q20  يعمل بالرقم السري والكرت وتطبيق للهواتف الذكية عن طريق البلوتوث ويمكن ربطه بالانترنت عن طريق قطعه G2  ويمكن تركيبه على الخزائن والادراج  استخداماته  النوادي الرياضيه - المدارس - الفنادق - المكاتب - المنازل</t>
-  </si>
-  <si>
-    <t>الالوان:  فضي - ذهبي - أسود  الماركة:  KANGO  المواصفات:  الدخول عن طريق البصمة ورقم سري وتطبيق على الجوال  يمكن تركيبة على الابواب الخشب والحديد  يمكن تركيبة على كوالين مقاس 45-50-60-70ملم  مع مواد  خلي بابك ذكي.</t>
-  </si>
-  <si>
-    <t>الالوان:  فضي - ذهبي - أسود  الماركة:  KANGO  المواصفات:  الدخول عن طريق البصمة ورقم سري وكرت وتطبيق على الجوال  يمكن تركيبة على الابواب الخشب والحديد  يمكن تركيبة على كوالين مقاس 45-50-60-70ملم  الضمان:  2 سنه  مع مواد  خلي بابك ذكي.</t>
-  </si>
-  <si>
-    <t>الالوان:  أسود - فضي  الماركة:  KANGO  المواصفات:  الدخول عن طريق البصمة ورقم سري وكرت وتطبيق على الجوال  مقاوم للعوامل الخارجية IP65  يمكن تركيبة على الابواب الخشب والحديد  يمكن تركيبة على كوالين مقاس 45-50-60-70ملم  الضمان:  2 سنه  مع مواد  خلي بابك ذكي.</t>
-  </si>
-  <si>
-    <t>حجم العبوة 1 لتر او 5 لتر  روابط قد تهمك:  البيانات التقنية  فيديو توضيحي  مناسب لـ :  بلاطات البورسلان المصقولة والرخام والجرانيت والأحجار الطبيعية والمتكتلات الاصطناعية والخرسانة.  الإستخدامات :  لمسة نهائية لمنع البقع  يقلل من الإمتصاص دون التأثير على المظهر الطبيعي للمادة.  مقاوم للخدش ويساعد في عملية التنظيف على ازالة الخدش بسهولة.  مناسب ايضا لمواد ملء الفواصل بين البلاط والسيراميك والألواح الحجرية.  مناسب ايضا لمعالجة بلاط الاسمنت الملوّن والأحجار المجددة.  مقاوم للخدش: من خلال حماية السطح ، يمكن إزالة الخدوش بسهولة أثناء عملية التنظيف.  المميزات:  ساهم في الحصول على شهادة الريادة في تصاميم الطاقة والبيئة (LEED).  لا يحتوي على مادة الهيدروكربون.  مقاوم للرطوبة ويمكن استخدامه من 24 الى 48 ساعة من بعد الغسيل.  وضع طبقة واحدة للمنتج للإمتصاص بشكل مباشر.  لا يكوّن طبقة سطحية.  مناسب لمختلف التطبيقات خاصة في المطابخ ودورات المياة.  تم اختبار المنتج واعتماده للإستخدام الآمن.  يجف السطح بعد 4 ساعات.  تنبيه:  اختبر المنتج على مساحة صغيرة قبل وضعه على الأسطح لضمان عدم تغير لون الأسطح.  لا تستخدم المنتج على الأسطح الخارجية إذا كان متوقعا سقوط أمطار.  هذا المنتج ال يحمي من التأثيرات الضارة لألحماض.</t>
-  </si>
-  <si>
-    <t>حجم العبوة 1 لتر او 5 لتر  روابط قد تهمك :  البيانات التقنية  نشرة السلامة  فيديو تطبيقي  مناسب لـ :  بلاط البورسلان، الحجر غير المصقول والتكتلات الاصطناعية، بلاط السيراميك اللامعة، الخرسانة، المشمع والكلوريد متعدد الفينيل، التراكوتا، البلاط الحجري.  الأستخدامات  عند تخفيفه، ينظف ويزيل الشحوم من الأرضيات المصنوعة من البورسلان والسيراميك والحجر الطبيعي والتيراكوتا والأسمنت.  في حال عدم تخفيفه، يزيل البقع الصعبة من ارضيات البورسلان.  منتج مثالي لتنظيف الأحجار الطبيعية التي تتأثر بلأحماض.  اختيار ممتاز لتنظيف الأسطح الأسمنتية.  يزيل الشمع من الأسطح.  يزيل الرواسب التي تتكون على بلاط البورسلان المصقول.  المميزات:  منتج ثلاثي المفعول: منظف، مزيل للبقع، مزيل للشمع.  المنتج الوحيد الذي بإمكانه إزالة البقع الصعبة من بلاط البورسلان.  سهل الاستخدام.  ينظف دون ان يسبب أضرارا.  تنبيه:  1 .تجنب استخدم المنتج على رخام جديد أو حجر مصقول.  2 .تجنب استخدام المنتج على الخشب.  3 .تجنب استخدام المنتج على أحواض الاستحمام المصنوعة من الميثاكريلات.  4 .يجب إجراء اختبار على مساحة صغيرة قبل الاستخدام للتأكد من تأثر الألوان.</t>
-  </si>
-  <si>
-    <t>حجم العبوة 1 لتر او 5 لتر  روابط قد تهمك :  البيانات التقنية  نشرة السلامة  فيديو تطبيقي  واق من البقع للأسطح غير المصقولة ذو اساس مائي  مناسب لـ :  للحجر غير المصقول والمتكتلات الاصطناعية، التراكوتا، البلاط الحجري، الخرسانة.  الإستخدامات :  يحمي المواد المسامية مثل الحجر الطبيعي الخام، التراكوتا والأسمنت من الأوساخ والدهون.  يقلل بشكل كبير من الامتصاص دون التأثير على المظهر الطبيعي للمادة.  مناسب للأسطح الداخلية والخارجية.  للاستخدام في الأرضيات الداخلية كطبقة واقية قبل الشمع.  يوفر حماية ضد الكتابة عليه حيث يعوق التصاق طلاء الجرافيتي بالأسطح. يزيد من سرعة عملية التنظيف لسهولة إزالة طلاء الجرافيتي من على الأسطح.  المميزات :  لا يغير المظهر الطبيعي للسطح.  فيلا دبليو 68منتج صديق للبيئة ويوفر وقت لأنه يمكن استخدامه على الأسطح الغير الجافة.  لا يحدث تغير كيميائي.  لا تتأثر مكونات التركوتا بسبب مقاومة المنتج لدرجات الحرارة المنخفضة.  ممتاز أيضا للأسطح الخرسانية.  المنتج آمن صحيا.  هذا المنتج لديه انبعاثات كيميائية عضوية منخفضة.  تنبيه:  قم بإجراء اختبار على مساحة صغيرة للتحقق من حدوث أي تغيرات في اللون.  لا تستخدم المنتج على الأسطح الخارجية إذا كان متوقعا سقوط أمطار.  هذا المنتج لا يحمي من التأثيرات الضارة للأحماض.</t>
-  </si>
-  <si>
-    <t>عبوة 1 لتر او 5 لتر  روابط قد تهمك :  البيانات التقنية  نشرة السلامة  فيديو تطبيقي  طارد للماء والزيوت  يعزز اللون الأصلي للأسطح ويعيد له بريقه ولمعانه  مناسب لـ :  الحجر الطبيعي، الرخام، الجرانيت.  الإستخدامات :  يحمي و يعزز الألوان للاسطح الحجرية المصقولة و غير المصقولة.  يتغلغل في المادة بعمق ويقلل اجتذاب الأتربة.  المميزات :  يعيد الحياة و يعزز اللون لكافة الاسطح.  منتج اخضر متوافق مع متطلبات الايطالية والمجلس الأمريكي للأبنية الخضراء.  ذو اساس مائي، صديق للبيئة.  الأساس المائي يمكن المنتج من الاستعمال السريع بعد فترة بسيطة من الغسل الابتدائي.  يعزز لون الترويبة و يتحمل اشعة الشمس.  لا يشكل طبقة سطحية.  الاسطح المعالجة صالحة لملامسة الطعام.  تنبيه: بمجرد معالجته باستخدام ستون بلس ايكو ، لا يمكن إعادة الحجر إلى حالته الأصلية. قبل معالجة السطح ، قم بإجراء اختبار بقعة للتحقق من اللون النهائي. لا تستخدم المنتج إذا كان من المتوقع هطول أمطار. لا تحمي من العدوان الحمضي.</t>
-  </si>
-  <si>
-    <t>عبوة 1لتر او 5 لتر  روابط قد تهمك :  البيانات التقنية  نشرة السلامة  فيديو تطبيقي  واق من البقع للأسطح الغير المصقولة :  مناسب لـ :  الأحجار الطبيعية والمتكتلات الاصطناعية، الرخام والجرانيت، الخرسانة، الأرضيات المغطاة بالخشب والبلاستيك، التراكوتا، البلاط الحجري.  الإستخدامات :  يعيق امتصاص البقع المائية والزيتية الشائعة.  طبقة حماية أساسية قبل تشميع الأسطح الداخلية باللمسات النهائية الخشنة أو الناعمة.  مثالي للبلاط الأسمنتي الملون.  حماية فعالة ذات تأثير طبيعي.  المميزات:  يحافظ على المظهر الطبيعي للأسطح.  لا يكون طبقة سطحية.  لا يؤثر في قدرة التراكوتا على مقاومة الصقيع.  ممتاز مع أرضيات التراكوتا الصدأة والرخام المكسر.  مثالي للاستخدام بجانب المطابخ والشوايات وأماكن مرور السيارات.  مثالي للأسطح الداخلية والخارجية.  تنبيه:  لا تستخدم فوكس إكستريم على أسطح مجلية بالشمع.  يحظر وضع فوكس إكستريم في الفترات التي ترتفع أثناءها دراجة الحرارة خاصة في فصل الصيف.  قم بإجراء اختبار على مساحة صغيرة للتحقق من حدوث تغيرات في اللون.  لا تستخدم هذا المنتج على الأسطح الخارجية إذا كان متوقعاً سقوط الأمطار.  هذا المنتج لا يحمي من التأثيرات الضارة للأحماض.</t>
-  </si>
-  <si>
-    <t>حجم العبوة 1 او 5 لتر  روابط قد تهمك :  البيانات التقنية  نشرة السلامة  فيديو تطبيقي  مناسب لـ :  الحجر غير المصقول، المتكتلات الاصطناعية، الخرسانة،التراكوتا، الطوب المكشوف، الحجر الطبيعي، الجبس، بلاط الطوف  منتج صديق للبيئة ومقاوم للمياه  الإستخدامات :  يقاوم الماء وذو تأثير طبيعي.  يتغلغل بعمق داخل المواد ويسمح بتهوية الأسطح.  يمنع تراكم الطحالب والعفن والفطريات.  يحمي الأسطح من التلف بسبب العوامل الجوية.  المميزات :  طبقة مانعة لتكون العفن وفقا للاختبار المطابق لمتطلبات أيزو.  مناسب لحماية الجدران الخارجية.  يقاوم الأشعة فوق البنفسجية.  لا يؤثر على قدرة التراكوتا في مقاومة الصقيع.  يحمي من تكون الأملاح.  يمكن استخدامه على الأسطح الرطبة.  تحافظ المعالجة بمستوى تهوية الأسطح بنسبة تزيد عن % 90 .  تنبيه:  قم بإجراء اختبار على مساحة صغيرة للتحقق من حدوث أي تغيرات في اللون. تجنب تراكم المنتج الذي لم يمتص. لا تستخدم المنتج على الأسطح الخارجية إذا كان متوقعا سقوط أمطار. يمكن إزالة أي رواسب عنيدة بعد جفاف المنتج باستخدام فاس زيرو المخفف بنسبة 1:10 وقرصا أبيض. تجنب استخدام المنتج على الأسطح التي تتراكم عليها الأبخرة المكثفة والمعرضة لأشعة الشمس. هذا المنتج لا يحمي من التأثيرات الضارة للأحماض.</t>
-  </si>
-  <si>
-    <t>تجمع سلسلة بلاط Gravel من البورسلين المزجج بين الحاضر والمستقبل ، وهي واحدة من أكثر مجموعات Argenta شمولاً واكتمالاً. إنه يجمع بين أكثر التقنيات تقدمًا مع تصميم دقيق للغاية. مستوحاة من أسمنت ساسي الإيطالي الخالص ، تبرز هذه القطع بسبب ترصيعها بالحجر والأكسيد ، واللمعان الخفيف والنقوش التي تضفي المظهر الصناعي المميز للأسمنت. إنها ذات ملمس لطيف ولمسة نهائية عالية غير لامع بدون انعكاسات. علاوة على ذلك ، تتوفر هذه السلسلة بستة ألوان متناغمة ، مع إصدار مضاد للانزلاق ، وهو مثالي للديكورات الخارجية التي تسعى إلى الاستمرارية. Gravel هي مجموعة فريدة لا تُنسى.</t>
-  </si>
-  <si>
-    <t>مادة الطين المعالج هو منتج مبتكر ويصنع من مزيــج مــن الطيــن و الرمــل وبودرة الحجر ومثبتة عبــر تقنيــة بــراءة إختــراع صناعيــة, هي تقنية ثورية (تم بحثها وتطويرها وحاصلة على براءة اختراع في الولايات المتحدة وأوروبا ) ويستعمل المنتج للتكسية الحوائط الخارجية والداخليه للمباني و يستعمل ايضا فى تكسية الاسقف الداخليه والاثاث يأتي المنتج على أشكال متعدده منها أشكال الحجر وأشكال الرخام الخشب والطوب وبعض الاشكال الديكورية.</t>
-  </si>
-  <si>
-    <t>الميزات خفيف الوزن وقوي يمكنك عمل التصاميم الداخلية بسهولة مصنوعة من البولسترين الصديق للبيئة ومصادق عليه من قبل هيئة الغذاء والدواء الأمريكية FDA . ولا يتأثر  بالماء وبالرطوبة العالية سهولة القص والتشكيل والتركيب باستخدام غراء السيليكون . اقتصادي في السعر والتركيب والتصميم . مصبوغة بألوان ذات جودة عالية خالية من التشوه والالتواءات التي تسببها الرطوبة . تمت معالجته ليصبح مضاد لسوس الخشب . مناسب وامن للاطفال و لمن يعانون من أمراض الربو والأكزيما وحساسية الجلد ولا يسبب انبعاثات كيميائية ضارة . المواصفات العلامة التجارية  : MIGA الابعاد :              20(سماكة)*150(عرض)*2400(طول) مم اللون :               ابيض بلد المنشأ :       كوريا الجنوبية</t>
-  </si>
-  <si>
-    <t>الميزات خفيف الوزن وقوي يمكنك عمل التصاميم الداخلية بسهولة مصنوعة من البولسترين الصديق للبيئة ومصادق عليه من قبل هيئة الغذاء والدواء الأمريكية FDA . ولا يتأثر  بالماء وبالرطوبة العالية سهولة القص والتشكيل والتركيب باستخدام غراء السيليكون . اقتصادي في السعر والتركيب والتصميم . مصبوغة بألوان ذات جودة عالية خالية من التشوه والالتواءات التي تسببها الرطوبة . تمت معالجته ليصبح مضاد لسوس الخشب . مناسب وامن للاطفال و لمن يعانون من أمراض الربو والأكزيما وحساسية الجلد ولا يسبب انبعاثات كيميائية ضارة . المواصفات العلامة التجارية  : MIGA الابعاد :              15(سماكة)*100(عرض)*2400(طول) مم اللون :               ابيض بلد المنشأ :       كوريا الجنوبية</t>
-  </si>
-  <si>
-    <t>الميزات خفيف الوزن وقوي يمكنك عمل التصاميم الداخلية بسهولة مصنوعة من البولسترين الصديق للبيئة ومصادق عليه من قبل هيئة الغذاء والدواء الأمريكية FDA . ولا يتأثر  بالماء وبالرطوبة العالية سهولة القص والتشكيل والتركيب باستخدام غراء السيليكون . اقتصادي في السعر والتركيب والتصميم . مصبوغة بألوان ذات جودة عالية خالية من التشوه والالتواءات التي تسببها الرطوبة . تمت معالجته ليصبح مضاد لسوس الخشب . مناسب وامن للاطفال و لمن يعانون من أمراض الربو والأكزيما وحساسية الجلد ولا يسبب انبعاثات كيميائية ضارة . المواصفات العلامة التجارية  : MIGA الابعاد :              12(سماكة)*95(عرض)*2400(طول) مم اللون :               ابيض بلد المنشأ :       كوريا الجنوبية</t>
-  </si>
-  <si>
-    <t>الميزات خفيف الوزن وقوي يمكنك عمل التصاميم الداخلية بسهولة مصنوعة من البولسترين الصديق للبيئة ومصادق عليه من قبل هيئة الغذاء والدواء الأمريكية FDA . ولا يتأثر  بالماء وبالرطوبة العالية سهولة القص والتشكيل والتركيب باستخدام غراء السيليكون . اقتصادي في السعر والتركيب والتصميم . مصبوغة بألوان ذات جودة عالية خالية من التشوه والالتواءات التي تسببها الرطوبة . تمت معالجته ليصبح مضاد لسوس الخشب . مناسب وامن للاطفال و لمن يعانون من أمراض الربو والأكزيما وحساسية الجلد ولا يسبب انبعاثات كيميائية ضارة . المواصفات العلامة التجارية  : MIGA الابعاد :              10(سماكة)*70(عرض)*2400(طول) مم اللون :               ابيض بلد المنشأ :       كوريا الجنوبية</t>
-  </si>
-  <si>
-    <t>الميزات خفيف الوزن وقوي يمكنك عمل التصاميم الداخلية بسهولة مصنوعة من البولسترين الصديق للبيئة ومصادق عليه من قبل هيئة الغذاء والدواء الأمريكية FDA . ولا يتأثر  بالماء وبالرطوبة العالية سهولة القص والتشكيل والتركيب باستخدام غراء السيليكون . اقتصادي في السعر والتركيب والتصميم . مصبوغة بألوان ذات جودة عالية خالية من التشوه والالتواءات التي تسببها الرطوبة . تمت معالجته ليصبح مضاد لسوس الخشب . مناسب وامن للاطفال و لمن يعانون من أمراض الربو والأكزيما وحساسية الجلد ولا يسبب انبعاثات كيميائية ضارة . المواصفات العلامة التجارية  : MIGA الابعاد :              6(سماكة)*300(عرض)*2400(طول) مم اللون :               ابيض بلد المنشأ :       كوريا الجنوبية</t>
-  </si>
-  <si>
-    <t>الميزات خفيف الوزن وقوي يمكنك عمل التصاميم الداخلية بسهولة مصنوعة من البولسترين الصديق للبيئة ومصادق عليه من قبل هيئة الغذاء والدواء الأمريكية FDA . ولا يتأثر  بالماء وبالرطوبة العالية سهولة القص والتشكيل والتركيب باستخدام غراء السيليكون . اقتصادي في السعر والتركيب والتصميم . مصبوغة بألوان ذات جودة عالية خالية من التشوه والالتواءات التي تسببها الرطوبة . تمت معالجته ليصبح مضاد لسوس الخشب . مناسب وامن للاطفال و لمن يعانون من أمراض الربو والأكزيما وحساسية الجلد ولا يسبب انبعاثات كيميائية ضارة . المواصفات العلامة التجارية  : MIGA الابعاد :              13(سماكة)*22(عرض)*2400(طول) مم اللون :               ابيض بلد المنشأ :       كوريا الجنوبية</t>
-  </si>
-  <si>
-    <t>الميزات خفيف الوزن وقوي يمكنك عمل التصاميم الداخلية بسهولة مصنوعة من البولسترين الصديق للبيئة ومصادق عليه من قبل هيئة الغذاء والدواء الأمريكية FDA . ولا يتأثر  بالماء وبالرطوبة العالية سهولة القص والتشكيل والتركيب باستخدام غراء السيليكون . اقتصادي في السعر والتركيب والتصميم . مصبوغة بألوان ذات جودة عالية خالية من التشوه والالتواءات التي تسببها الرطوبة . تمت معالجته ليصبح مضاد لسوس الخشب . مناسب وامن للاطفال و لمن يعانون من أمراض الربو والأكزيما وحساسية الجلد ولا يسبب انبعاثات كيميائية ضارة . المواصفات العلامة التجارية  : MIGA الابعاد :              19(سماكة)*38(عرض)*2400(طول) مم اللون :               ابيض بلد المنشأ :       كوريا الجنوبية</t>
-  </si>
-  <si>
-    <t>مصنوع من الالمنيوم بالكامل بسماكة ومتانة عالية ضد الصدأ والتآكل</t>
-  </si>
-  <si>
-    <t>مصنوع من الالمنيوم بالكامل بسماكة ومتانة عالية ضد الصدأ والتآكل مطاط داخلي EPDM يساعد لمنع تسرب المياه وعزل الروائح زوايا الغطاء من الالمنيوم لصلابة عالية شبك معدني لدعم وتماسك الأسمنت مقبض مزدوج لرفع الغطاء</t>
-  </si>
-  <si>
-    <t>مصنوع من الالمنيوم بالكامل بسماكة ومتانة عالية ضد الصدأ والتآكل زوايا الغطاء من الالمنيوم لصلابة عالية شبك معدني لدعم وتماسك الأسمنت مقبض مزدوج لرفع الغطاء</t>
-  </si>
-  <si>
-    <t>مصنوع من الالمنيوم بالكامل بسماكة ومتانة عالية ضد الصدأ والتآكل سهولة رفع الشبك العلوي للنظافة والصيانة</t>
-  </si>
-  <si>
-    <t>المقاسات: B : 41*56*56 المواصفات: أحواض زراعية عصرية ومميزة مصنوعة من مادة الفايبر مقاومة عاليه ل أشعه الشمس والماء والعوامل الخارجية للاستخدام الخارجي و الداخلي.</t>
-  </si>
-  <si>
-    <t>المقاسات: C : 29*37*37 المواصفات: أحواض زراعية عصرية ومميزة مصنوعة من مادة الفايبر مقاومة عاليه ل أشعه الشمس والماء والعوامل الخارجية للاستخدام الخارجي و الداخلي.</t>
-  </si>
-  <si>
-    <t>المقاسات: D : 18*23*23 المواصفات: أحواض زراعية عصرية ومميزة مصنوعة من مادة الفايبر مقاومة عاليه ل أشعه الشمس والماء والعوامل الخارجية للاستخدام الخارجي و الداخلي.</t>
-  </si>
-  <si>
-    <t>المقاسات: A : 55*50*50 المواصفات: أحواض زراعية عصرية ومميزة مصنوعة من مادة الفايبر مقاومة عاليه ل أشعه الشمس والماء والعوامل الخارجية للاستخدام الخارجي و الداخلي.</t>
-  </si>
-  <si>
-    <t>المقاسات: B : 42*38*38 المواصفات: أحواض زراعية عصرية ومميزة مصنوعة من مادة الفايبر مقاومة عاليه ل أشعه الشمس والماء والعوامل الخارجية للاستخدام الخارجي و الداخلي.</t>
-  </si>
-  <si>
-    <t>المقاسات: C : 30*28*28 المواصفات: أحواض زراعية عصرية ومميزة مصنوعة من مادة الفايبر مقاومة عاليه ل أشعه الشمس والماء والعوامل الخارجية للاستخدام الخارجي و الداخلي.</t>
-  </si>
-  <si>
-    <t>المقاسات: A : 34*55*55 المواصفات: أحواض زراعية عصرية ومميزة مصنوعة من مادة الفايبر مقاومة عاليه ل أشعه الشمس والماء والعوامل الخارجية للاستخدام الخارجي و الداخلي.</t>
-  </si>
-  <si>
-    <t>المقاسات: B : 28*45*45 المواصفات: أحواض زراعية عصرية ومميزة مصنوعة من مادة الفايبر مقاومة عاليه ل أشعه الشمس والماء والعوامل الخارجية للاستخدام الخارجي و الداخلي.</t>
-  </si>
-  <si>
-    <t>المقاسات: C : 23*35*35 المواصفات: أحواض زراعية عصرية ومميزة مصنوعة من مادة الفايبر مقاومة عاليه ل أشعه الشمس والماء والعوامل الخارجية للاستخدام الخارجي و الداخلي.</t>
-  </si>
-  <si>
-    <t>المقاسات: A : 50*50*50 المواصفات: أحواض زراعية عصرية ومميزة مصنوعة من مادة الفايبر مقاومة عاليه ل أشعه الشمس والماء والعوامل الخارجية للاستخدام الخارجي و الداخلي.</t>
-  </si>
-  <si>
-    <t>خشب بلوط أحمر  يتسم لون خشب القلب الفاتح إلى البني الفاتح ، وعادة ما يكون لونه مائل إلى الحمرة. ما يقرب من الأبيض إلى البني الفاتح النسغ ليس دائمًا محددًا بشكل حاد من خشب القلب. تعرض أقسام Quartersawn أنماطًا بارزة من بقع الشعاع. على العكس من ذلك ، يميل البلوط الأبيض إلى أن يكون أكثر لونًا قليلاً بالزيتون ، ولكنه ليس بأي حال طريقة موثوقة تحديد نوع البلوط  أسماء أخري  ريد أوك  الاسم العلمي  Quercus rubra  الاستخدامات النهائية  الخزائن  أثاث  تقليم داخلي  الأرضيات  قشرة  خصائص العمل  ينتج نتائج جيدة باستخدام الأدوات اليدوية والآلية. لها قيم انكماش عالية بشكل معتدل ، مما يؤدي إلى ثبات أبعاد متوسط ، خاصة في الألواح المسطحة. يمكن أن تتفاعل مع الحديد (خاصة عندما تكون مبللة) ويسبب تلطيخ وتغير اللون. يستجيب جيدًا للثني بالبخار. الغراء والبقع والتشطيب جيدًا.</t>
-  </si>
-  <si>
-    <t>خشب الكرز  يتحول لون خشب القلب إلى بني مائل للوردي عند قطعه حديثًا ، ويتحول إلى اللون الغامق إلى البني المحمر المتوسط مع مرور الوقت وعند التعرض للضوء. الساب وود لونه أصفر باهت.  أسماء أخري  الكرز الأسود ، الكرز ، الكرز الأمريكي  الاسم العلمي  برونوس سيروتينا  الاستخدامات النهائية  الخزائن  الأثاث الفاخر  الأرضيات  مطاحن داخلية  قشرة  قطع خشبية خاصة صغيرة  خصائص العمل  يُعرف الكرز بأنه أحد أفضل الأخشاب الشاملة لقابلية التشغيل. إنه مستقر ، مستقيم الحبيبات ، وآلات جيدة. عادةً ما تنشأ الصعوبات الوحيدة في حالة تلطيخ الخشب ، حيث يمكن أن يؤدي في بعض الأحيان إلى نتائج مبقعة - يوصى باستخدام مانع التسرب الصنفرة قبل التلوين ، أو استخدام صبغة أساسها الهلام. يعتبر خشب العصارة شائعًا ، وقد يساهم في ارتفاع عامل الهدر.</t>
-  </si>
-  <si>
-    <t>خشب الصنوبر السويدي الرابع  خشب القلب بني محمر فاتح ، خشب العصارة المحدد له لون أصفر باهت إلى تقريبا أبيض.  نظرة عامة  تتمتع Scots Pine بتوزيع هائل ، يمتد من البرتغال في غربًا إلى شرق سيبيريا. وبالتالي ، هناك أيضًا قدر كبير من التباين الطبيعي من حيث الكثافة والقوة والمظهر بسبب لمجموعة واسعة من ظروف نمو الشجرة. الأشجار من برودة تميل المناخات الشمالية إلى إنتاج خشب أكثر كثافة ونعومة بسبب معدلات نموها الأبطأ.  الاستخدامات الأساسية  أعمدة المرافق ، والأعمدة ، والصناديق / الصناديق ، والأرضيات ، والورق (لب الخشب) ، و خشب البناء.  خصائص العمل  يسهل التعامل مع Scots Pine مع الأدوات اليدوية والآلية. الغراء و ينتهي جيدا.</t>
-  </si>
-  <si>
-    <t>خشب ميرانتي  وعادة ما يكون لها لون بني محمر غامق أو بني مسترجن. عادة مع وجود خطوط راتنج بيضاء. يمكن أن تكون الحبوب بشكل مستقيم أو متشابك. ذات ملمس خشن وبريق طبيعي منخفض.  نظرة عامة  يتنوع لون خشب القلب من Meranti بشكل حاد من الأحمر الداكن إلى البني الأحمر الفاتح ومن الوردي الباهت إلى أحمر وردي. نظرًا لتنوع أنواع الأشجار ومنطقتها الأصلية ، بالنسبة لأنواع Shorea red Meranti ستكون هناك دائمًا اختلافات في الظلال والأوزان عند توصيل الأخشاب. السابوود الرمادي الوردي هو 20-50 مم ومتميزة عن خشب القلب.  الاستخدامات الأساسية  يمكن استخدامه في الأثاث الداخلي والإنشاءات العامة والأشكال الخرسانية وبناء القوارب.  خصائص العمل  من السهل عادةً العمل ، على الرغم من أن أي حبة متشابكة يمكن أن تسبب مشاكل أثناء التخطيط ، والأحمر الداكن يقال إن Meranti لها خصائص ثني بخار سيئة للغاية. قد يكون لبعض الأنواع صغر طفيف تأثير على الأدوات بسبب المستويات الصغيرة من السيليكا الموجودة في الخشب. الغراء والبقع والتشطيب جيدًا.</t>
-  </si>
-  <si>
-    <t>خشب زان أوروبي  خشب الزان الأوروبي هو خشب صلب مشهور ومتعدد الاستخدامات يستخدم في تطبيقات مختلفة. قوامه الناعم والمتساوي ومتانتها وأنماطها الحبيبية الجذابة مادة مرغوبة لمجموعة كبيرة من المشاريع.  نظرة عامة  خشب الزان الأوروبي هو نوع من أنواع الأخشاب الصلبة عالية الجودة ، مصدره أوروبا. إنه لون بني فاتح إلى متوسط وله نسيج ناعم ومتساوي مع أنماط حبيبية مستقيمة وموحدة. يستخدم خشب الزان الأوروبي على نطاق واسع في صناعة الأثاث والتشطيبات الداخلية والنجارة والأرضيات نظرًا لصلابته ومتانته وجماله الطبيعي.  الخواص  ملمس ناعم  أنماط مستقيمة وموحدة  متانة وصلابة عالية  مقاومة ممتازة للاهتراء والتلف  يتحمل البقع ويظهر بشكل جيد  مناسب للثني بالبخار  استقرار جيد الأبعاد  المواصفات  الاسم العلمي: Fagus sylvatica  الكثافة: 720 كجم / م 3  صلابة جانكا: 1450 رطل (6440 نيوتن)  محتوى الرطوبة: 8-10٪  متوفر بأحجام ودرجات مختلفة  الأستخدمات  صنع الأثاث  التشطيبات الداخلية  الأرضيات  نجارة  الات موسيقية  خراطة  نحت</t>
-  </si>
-  <si>
-    <t>خشب الواوا  Wawa هي واحدة من أخشاب التصدير الرائدة في إفريقيا. على الرغم من أنه يحدث على نطاق واسع ، إلا أنه شائع بشكل خاص ، يأتي من شجرة كبيرة جدًا يبلغ ارتفاعها 50 مترًا أو أكثر مترًا. خشب أبيض إلى قش باهت مع عدم وجود فرق بين خشب القلب وخشب العصارة. متوسط الملمس إلى خشن ؛ عادة ما تكون الحبوب متشابكة ، مما يعطي شكلًا مخططًا ؛ لامع. لها رائحة كريهة عندما تكون خضراء ولكن عادة لا يستمر بعد التجفيف.  أسماء أخري  Obeche ، Samba ، خشب أبيض أفريقي ، قيقب أفريقي  الاسم العلمي  تربلوتشيتون سكليروكسيلون  الأسرة  ستيركولاسياس  الاستخدامات النهائية  النفخ  الصناديق والصناديق  النحت  الكسوة الداخلية  الأثاث الحالي أو مكونات الأثاث  قشرة للظهر أو الوجه من الخشب الرقائقي  خصائص العمل  يعمل بسهولة بالغة مع الأدوات اليدوية والآلية ، لكن الحواف الحادة مطلوبة للحصول على قشرة ناعمة بسهولة ، خصائص الإلتصاق والتسمير جيدة.</t>
-  </si>
-  <si>
-    <t>نظره عامة  يتم تصنيع اللوح العازل XPS من خلال عملية البثق التي تخلق بنية خلية مغلقة موحدة ومتسقة. توفر هذه المادة عزلًا حراريًا فائقًا وتقاوم الرطوبة ، مما يجعلها مثالية لمجموعة كبيرة من التطبيقات. إنه خفيف الوزن وسهل الاستخدام ، مما يجعله خيارًا مثاليًا لكل من المشاريع السكنية والتجارية.  الخواص  قوة ضغط عالية واستقرار الأبعاد  خصائص عزل حراري فائقة  مقاومة استثنائية للرطوبة  خفيف الوزن وسهل الاستخدام  مقاومة العفن ونمو العفن  المواصفات  السماكة: 20-100 مم  العرض: 600-1200 مم  الطول: 1200-2400 مم  قوة الانضغاط: 300-700 كيلو باسكال  الموصلية الحرارية: 0.028-0.036 واط / مللي كلفن  الأستخدمات  عزل الأسقف  عزل الجدار  عزل الأرضيات  عزل الأساس  تحت بلاطة العزل  عزل التخزين البارد</t>
-  </si>
-  <si>
-    <t>شبك مزارع  سياج ربط السلسلة مصنوع من سلك فولاذي منخفض الكربون مطلي بالغمس الساخن أو PVC. يتوفر في مجموعة كبيرة من الصفات والألوان والأحجام والأنواع. يُعرف سياج ربط السلسلة بقوته ومتانته وربما يكون النوع الأكثر اقتصادا من السياج المتاح.  نظره عامه  المجلفن: قطر 2 مم إلى 4.8 مم (قطر خاص حسب الطلب).  PVC: قطر 3 مم إلى 5.9 مم (قطر خاص حسب الطلب).  طلاء الزنك وفقًا لمعايير ASTM أو A392 Class 1 أو أي معايير دولية أخرى عند الطلب.  سلك مبثوق أو مربوط PVC يؤكد مواصفة ASTM F - 668 الفئة 1 أو 2.  الاستخدامات الرئيسية  سياج سكني وتجاري وترفيهي وصناعي.  خصائص العمل  فتح 40 مم ، 50 مم ، 60 مم ، 70 مم و؛ 80 ملم.  الارتفاع: - 0.5 م حتى 4 م كحد أقصى.  ألوان PVC: أخضر ، يمكن إنتاج ألوان أخرى بكميات كبيرة.  حجم اللفة: - 10 م ، 15 م ، 20 م ، 25 م.</t>
-  </si>
-  <si>
-    <t>Item Name  Text..  Overview  Text..  Main Uses  Text..  Working Properties  Text..</t>
-  </si>
-  <si>
-    <t>مواسير حديد  مواسير الحديد، عبارة عن أنبوب فولاذي ملحوم مع خط لحام داخلي يتم قياسه بالحجم. مواسير حديد A500 عبارة عن أنبوب من الدرجة الهيكلية مع تشطيب ناعم وخصائص ميكانيكية أعلى قليلاً من الأنبوب القياسي.مواسير حديد ضغط 40 عبارة عن أنبوب تم اختباره ويمكن استخدامه للتطبيقات الهيكلية أو لتحمل ضغط المياه والسوائل  المواصفات  ASTM A500 Grade B  التشطيب  A500 - أزرق / رمادي غامق ، محبب قليلاً ، جاف  التطبيقات  الإطارات ، أقفاص لفة ، رفوف الشاحنات ، المقطورات ، الدرابزين ، إلخ  الخصائص الميكانيكية  الشد= 58,000  الأخضاع = 46,000+/-  كيفية قياس  القطر (أ) X الجدول (الجدار) X الطول</t>
+    <t>العلامة التجار...</t>
+  </si>
+  <si>
+    <t>رقم الموديل
+05...</t>
+  </si>
+  <si>
+    <t>رقم الموديل
+A3...</t>
+  </si>
+  <si>
+    <t>بلد الصنع
+اسبا...</t>
+  </si>
+  <si>
+    <t>رقم الموديل
+A8...</t>
+  </si>
+  <si>
+    <t>المقاس
+90x3
+ال...</t>
+  </si>
+  <si>
+    <t>المقاس
+63x2
+ال...</t>
+  </si>
+  <si>
+    <t>المقاس
+50x11/2...</t>
+  </si>
+  <si>
+    <t>المقاس
+40x11/4...</t>
+  </si>
+  <si>
+    <t>المقاس
+20x3/4
+...</t>
+  </si>
+  <si>
+    <t>تفاصيل المنتج
+...</t>
+  </si>
+  <si>
+    <t>المقاس
+120*60
+...</t>
+  </si>
+  <si>
+    <t>بلد الصنع
+ايطا...</t>
+  </si>
+  <si>
+    <t>المقاس
+135*300...</t>
+  </si>
+  <si>
+    <t>المقاس
+240*120...</t>
+  </si>
+  <si>
+    <t>مقاس اللوح
+20(...</t>
+  </si>
+  <si>
+    <t>المقاس
+6بوصه
+ت...</t>
+  </si>
+  <si>
+    <t>المقاس
+70*70
+ت...</t>
+  </si>
+  <si>
+    <t>المقاس
+100*100...</t>
+  </si>
+  <si>
+    <t>المقاس
+120*120...</t>
+  </si>
+  <si>
+    <t>المقاس
+50*50
+ت...</t>
+  </si>
+  <si>
+    <t>المقاس
+3 متر
+ت...</t>
+  </si>
+  <si>
+    <t>اللون
+رصاصي
+تف...</t>
+  </si>
+  <si>
+    <t>اللون
+أسود
+تفا...</t>
+  </si>
+  <si>
+    <t>اللون
+رصاصي*اب...</t>
+  </si>
+  <si>
+    <t>المقاس
+20مم
+25...</t>
+  </si>
+  <si>
+    <t>المقاس
+20x1/2
+...</t>
+  </si>
+  <si>
+    <t>المقاس
+3 متر</t>
+  </si>
+  <si>
+    <t>العرض ملم
+600م...</t>
+  </si>
+  <si>
+    <t>اسم المنتج الك...</t>
+  </si>
+  <si>
+    <t>تفاصيل الانارة...</t>
+  </si>
+  <si>
+    <t>خلاط بانيو اطل...</t>
+  </si>
+  <si>
+    <t>كرسي من ديبا
+ك...</t>
+  </si>
+  <si>
+    <t>كرسي ذا جاب
+كر...</t>
+  </si>
+  <si>
+    <t>مغسلة ذا جاب
+ا...</t>
+  </si>
+  <si>
+    <t>مجموعة طقم اكس...</t>
+  </si>
+  <si>
+    <t>مولتي سوت مخرج...</t>
+  </si>
+  <si>
+    <t>كونكا مخرج سما...</t>
+  </si>
+  <si>
+    <t>لايتطلب إعادة ...</t>
+  </si>
+  <si>
+    <t>للموديلات / 90...</t>
+  </si>
+  <si>
+    <t>الاستخدام المو...</t>
+  </si>
+  <si>
+    <t>للموديلات / 43...</t>
+  </si>
+  <si>
+    <t>لقمة تفريز 12 ...</t>
+  </si>
+  <si>
+    <t>للموديلات / 63...</t>
+  </si>
+  <si>
+    <t>للموديل / 3700...</t>
+  </si>
+  <si>
+    <t>للموديل / 9045...</t>
+  </si>
+  <si>
+    <t>الالوان:
+SILVE...</t>
+  </si>
+  <si>
+    <t>الالوان:
+BRONZ...</t>
+  </si>
+  <si>
+    <t>الالوان:
+SN
+ال...</t>
+  </si>
+  <si>
+    <t>مثقاب يدوي - ذ...</t>
+  </si>
+  <si>
+    <t>حراري - حسر من...</t>
+  </si>
+  <si>
+    <t>Gateway G2
+هي ...</t>
+  </si>
+  <si>
+    <t>تعريف المنتج
+ج...</t>
+  </si>
+  <si>
+    <t>الالوان:
+MSN ,...</t>
+  </si>
+  <si>
+    <t>6 أجهزة في جها...</t>
+  </si>
+  <si>
+    <t>قفل باب ذكي OD...</t>
+  </si>
+  <si>
+    <t>الالوان:
+فضي -...</t>
+  </si>
+  <si>
+    <t>الالوان:
+أسود ...</t>
+  </si>
+  <si>
+    <t>حجم العبوة 1 ل...</t>
+  </si>
+  <si>
+    <t>عبوة 1 لتر او ...</t>
+  </si>
+  <si>
+    <t>عبوة 1لتر او 5...</t>
+  </si>
+  <si>
+    <t>حجم العبوة 1 ا...</t>
+  </si>
+  <si>
+    <t>تجمع سلسلة بلا...</t>
+  </si>
+  <si>
+    <t>مادة الطين الم...</t>
+  </si>
+  <si>
+    <t>الميزات خفيف ا...</t>
+  </si>
+  <si>
+    <t>مصنوع من الالم...</t>
+  </si>
+  <si>
+    <t>المقاسات: B : ...</t>
+  </si>
+  <si>
+    <t>المقاسات: C : ...</t>
+  </si>
+  <si>
+    <t>المقاسات: D : ...</t>
+  </si>
+  <si>
+    <t>المقاسات: A : ...</t>
+  </si>
+  <si>
+    <t>خشب بلوط أحمر
+...</t>
+  </si>
+  <si>
+    <t>خشب الكرز
+يتحو...</t>
+  </si>
+  <si>
+    <t>خشب الصنوبر ال...</t>
+  </si>
+  <si>
+    <t>خشب ميرانتي
+وع...</t>
+  </si>
+  <si>
+    <t>خشب زان أوروبي...</t>
+  </si>
+  <si>
+    <t>خشب الواوا
+Waw...</t>
+  </si>
+  <si>
+    <t>نظره عامة
+يتم ...</t>
+  </si>
+  <si>
+    <t>شبك مزارع
+سياج...</t>
+  </si>
+  <si>
+    <t>Item Name
+Text...</t>
+  </si>
+  <si>
+    <t>مواسير حديد
+مو...</t>
   </si>
   <si>
     <t>image117.jpg</t>
@@ -1864,334 +1561,7 @@
     <t>image4572.jpg</t>
   </si>
   <si>
-    <t>https://raw.githubusercontent.com/barmgaa/buildingmats/main/images/image117.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/buildingmats/main/images/image111.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/buildingmats/main/images/image109.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/buildingmats/main/images/image106.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/buildingmats/main/images/image91.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/buildingmats/main/images/image84.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/buildingmats/main/images/image79.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/buildingmats/main/images/image76.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/buildingmats/main/images/image64.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/buildingmats/main/images/image53.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/buildingmats/main/images/image670.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/buildingmats/main/images/image674.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/buildingmats/main/images/image689.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/buildingmats/main/images/image685.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/buildingmats/main/images/image680.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/buildingmats/main/images/image804.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/buildingmats/main/images/image687.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/buildingmats/main/images/image773.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/buildingmats/main/images/image774.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/buildingmats/main/images/image775.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/buildingmats/main/images/image2061.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/buildingmats/main/images/image1773.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/buildingmats/main/images/image1873.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/buildingmats/main/images/image2666.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/buildingmats/main/images/image2651.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/buildingmats/main/images/image3587.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/buildingmats/main/images/image1700.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/buildingmats/main/images/image2985.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/buildingmats/main/images/image1432.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/buildingmats/main/images/image2990.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/buildingmats/main/images/image939.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/buildingmats/main/images/image940.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/buildingmats/main/images/image895.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/buildingmats/main/images/image896.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/buildingmats/main/images/image897.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/buildingmats/main/images/image898.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/buildingmats/main/images/image899.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/buildingmats/main/images/image900.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/buildingmats/main/images/image901.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/buildingmats/main/images/image906.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/buildingmats/main/images/image4653.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/buildingmats/main/images/image4654.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/buildingmats/main/images/image4606.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/buildingmats/main/images/image4663.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/buildingmats/main/images/image4664.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/buildingmats/main/images/image4631.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/buildingmats/main/images/image4632.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/buildingmats/main/images/image4633.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/buildingmats/main/images/image4634.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/buildingmats/main/images/image4635.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/buildingmats/main/images/image1019.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/buildingmats/main/images/image1022.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/buildingmats/main/images/image1029.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/buildingmats/main/images/image1039.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/buildingmats/main/images/image1040.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/buildingmats/main/images/image1041.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/buildingmats/main/images/image1042.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/buildingmats/main/images/image1043.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/buildingmats/main/images/image1044.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/buildingmats/main/images/image1045.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/buildingmats/main/images/image1076.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/buildingmats/main/images/image1071.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/buildingmats/main/images/image1074.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/buildingmats/main/images/image1077.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/buildingmats/main/images/image1075.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/buildingmats/main/images/image1073.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/buildingmats/main/images/image1060.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/buildingmats/main/images/image1061.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/buildingmats/main/images/image1062.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/buildingmats/main/images/image1063.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/buildingmats/main/images/image1376.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/buildingmats/main/images/image1384.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/buildingmats/main/images/image1314.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/buildingmats/main/images/image1315.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/buildingmats/main/images/image1316.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/buildingmats/main/images/image1317.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/buildingmats/main/images/image1318.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/buildingmats/main/images/image1357.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/buildingmats/main/images/image1358.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/buildingmats/main/images/image1359.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/buildingmats/main/images/image1221.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/buildingmats/main/images/image1220.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/buildingmats/main/images/image1266.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/buildingmats/main/images/image1257.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/buildingmats/main/images/image1246.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/buildingmats/main/images/image1263.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/buildingmats/main/images/image1190.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/buildingmats/main/images/image1242.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/buildingmats/main/images/image1230.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/buildingmats/main/images/image1239.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/buildingmats/main/images/image4355.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/buildingmats/main/images/image4356.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/buildingmats/main/images/image4357.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/buildingmats/main/images/image4358.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/buildingmats/main/images/image4359.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/buildingmats/main/images/image4360.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/buildingmats/main/images/image4361.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/buildingmats/main/images/image4362.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/buildingmats/main/images/image4363.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/buildingmats/main/images/image4364.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/buildingmats/main/images/image4551.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/buildingmats/main/images/image4552.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/buildingmats/main/images/image4554.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/buildingmats/main/images/image4555.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/buildingmats/main/images/image4556.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/buildingmats/main/images/image4557.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/buildingmats/main/images/image1.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/buildingmats/main/images/image4566.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/buildingmats/main/images/image4571.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/buildingmats/main/images/image4572.jpg</t>
+    <t>https://raw.gi...</t>
   </si>
   <si>
     <t>اضاءة جدارية</t>
@@ -2206,52 +1576,37 @@
     <t>خلاطات</t>
   </si>
   <si>
-    <t>خلاطات, خلاط مغسلة</t>
+    <t>خلاطات, خلاط م...</t>
   </si>
   <si>
     <t>كرسي الحمام</t>
   </si>
   <si>
-    <t>كرسي الحمام, كراسي أرضية</t>
-  </si>
-  <si>
-    <t>مغاسل, مغاسل أرضية</t>
-  </si>
-  <si>
-    <t>اكسسوارات الحمام</t>
-  </si>
-  <si>
-    <t>اكسسوارات الحمام, أطقم الحمامات</t>
+    <t>كرسي الحمام, ك...</t>
+  </si>
+  <si>
+    <t>مغاسل, مغاسل أ...</t>
+  </si>
+  <si>
+    <t>اكسسوارات الحم...</t>
   </si>
   <si>
     <t>تركيبات</t>
   </si>
   <si>
-    <t>أدوات كهربائية, قطع غيار ماكيتا</t>
-  </si>
-  <si>
-    <t>أدوات كهربائية, تكسير دوران</t>
+    <t>أدوات كهربائية...</t>
   </si>
   <si>
     <t>جلخ</t>
   </si>
   <si>
-    <t>مناشير, أدوات كهربائية</t>
-  </si>
-  <si>
-    <t>أدوات كهربائية, مناشير</t>
-  </si>
-  <si>
-    <t>أدوات كهربائية, مسويات وفرايز</t>
-  </si>
-  <si>
-    <t>أدوات كهربائية, التخريم والتربيط</t>
-  </si>
-  <si>
-    <t>اكسسوارات الابواب</t>
-  </si>
-  <si>
-    <t>اكسسوارات المطابخ</t>
+    <t>مناشير, أدوات ...</t>
+  </si>
+  <si>
+    <t>اكسسوارات الاب...</t>
+  </si>
+  <si>
+    <t>اكسسوارات المط...</t>
   </si>
   <si>
     <t>جسور</t>
@@ -2260,19 +1615,19 @@
     <t>جلبة</t>
   </si>
   <si>
-    <t>جلبة بسن داخلي</t>
-  </si>
-  <si>
-    <t>جلبة بسن سداسي</t>
-  </si>
-  <si>
-    <t>اقفال الكترونية</t>
-  </si>
-  <si>
-    <t>منتجات الحماية</t>
-  </si>
-  <si>
-    <t>منتجات حسب نوع السطح</t>
+    <t>جلبة بسن داخلي...</t>
+  </si>
+  <si>
+    <t>جلبة بسن سداسي...</t>
+  </si>
+  <si>
+    <t>اقفال الكتروني...</t>
+  </si>
+  <si>
+    <t>منتجات الحماية...</t>
+  </si>
+  <si>
+    <t>منتجات حسب نوع...</t>
   </si>
   <si>
     <t>بلاط أرضيات</t>
@@ -2281,7 +1636,7 @@
     <t>صفائح طينية</t>
   </si>
   <si>
-    <t>إطارات ديكورية</t>
+    <t>إطارات ديكورية...</t>
   </si>
   <si>
     <t>صفايات المياه</t>
@@ -2290,7 +1645,7 @@
     <t>أحواض الفايبر</t>
   </si>
   <si>
-    <t>الأخشاب الصلبة</t>
+    <t>الأخشاب الصلبة...</t>
   </si>
   <si>
     <t>العوازل</t>
@@ -2299,7 +1654,7 @@
     <t>المعادن</t>
   </si>
   <si>
-    <t>المعادن, حديد مفرغ ومواسير</t>
+    <t>المعادن, حديد ...</t>
   </si>
 </sst>
 </file>
@@ -2716,3120 +2071,3120 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>121</v>
+        <v>83</v>
       </c>
       <c r="C2" t="s">
-        <v>132</v>
+        <v>94</v>
       </c>
       <c r="D2" t="s">
-        <v>242</v>
+        <v>204</v>
       </c>
       <c r="E2" t="s">
-        <v>343</v>
+        <v>305</v>
       </c>
       <c r="H2" t="s">
-        <v>420</v>
+        <v>335</v>
       </c>
       <c r="I2" t="s">
-        <v>506</v>
+        <v>385</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>616</v>
+        <v>495</v>
       </c>
       <c r="K2" t="s">
-        <v>726</v>
+        <v>496</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>121</v>
+        <v>83</v>
       </c>
       <c r="C3" t="s">
-        <v>133</v>
+        <v>95</v>
       </c>
       <c r="D3" t="s">
-        <v>243</v>
+        <v>205</v>
       </c>
       <c r="E3" t="s">
-        <v>343</v>
+        <v>305</v>
       </c>
       <c r="H3" t="s">
-        <v>421</v>
+        <v>335</v>
       </c>
       <c r="I3" t="s">
-        <v>507</v>
+        <v>386</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>617</v>
+        <v>495</v>
       </c>
       <c r="K3" t="s">
-        <v>726</v>
+        <v>496</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>121</v>
+        <v>83</v>
       </c>
       <c r="C4" t="s">
-        <v>134</v>
+        <v>96</v>
       </c>
       <c r="D4" t="s">
-        <v>244</v>
+        <v>206</v>
       </c>
       <c r="E4" t="s">
-        <v>343</v>
+        <v>305</v>
       </c>
       <c r="H4" t="s">
-        <v>422</v>
+        <v>335</v>
       </c>
       <c r="I4" t="s">
-        <v>508</v>
+        <v>387</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>618</v>
+        <v>495</v>
       </c>
       <c r="K4" t="s">
-        <v>726</v>
+        <v>496</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>121</v>
+        <v>83</v>
       </c>
       <c r="C5" t="s">
-        <v>135</v>
+        <v>97</v>
       </c>
       <c r="D5" t="s">
-        <v>245</v>
+        <v>207</v>
       </c>
       <c r="E5" t="s">
-        <v>343</v>
+        <v>305</v>
       </c>
       <c r="H5" t="s">
-        <v>420</v>
+        <v>335</v>
       </c>
       <c r="I5" t="s">
-        <v>509</v>
+        <v>388</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>619</v>
+        <v>495</v>
       </c>
       <c r="K5" t="s">
-        <v>726</v>
+        <v>496</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>121</v>
+        <v>83</v>
       </c>
       <c r="C6" t="s">
-        <v>136</v>
+        <v>98</v>
       </c>
       <c r="D6" t="s">
-        <v>246</v>
+        <v>208</v>
       </c>
       <c r="E6" t="s">
-        <v>343</v>
+        <v>305</v>
       </c>
       <c r="H6" t="s">
-        <v>423</v>
+        <v>335</v>
       </c>
       <c r="I6" t="s">
-        <v>510</v>
+        <v>389</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>620</v>
+        <v>495</v>
       </c>
       <c r="K6" t="s">
-        <v>727</v>
+        <v>497</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>121</v>
+        <v>83</v>
       </c>
       <c r="C7" t="s">
-        <v>137</v>
+        <v>99</v>
       </c>
       <c r="D7" t="s">
-        <v>247</v>
+        <v>209</v>
       </c>
       <c r="E7" t="s">
-        <v>343</v>
+        <v>305</v>
       </c>
       <c r="H7" t="s">
-        <v>424</v>
+        <v>335</v>
       </c>
       <c r="I7" t="s">
-        <v>511</v>
+        <v>390</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>621</v>
+        <v>495</v>
       </c>
       <c r="K7" t="s">
-        <v>727</v>
+        <v>497</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>121</v>
+        <v>83</v>
       </c>
       <c r="C8" t="s">
-        <v>138</v>
+        <v>100</v>
       </c>
       <c r="D8" t="s">
-        <v>248</v>
+        <v>210</v>
       </c>
       <c r="E8" t="s">
-        <v>343</v>
+        <v>305</v>
       </c>
       <c r="H8" t="s">
-        <v>425</v>
+        <v>335</v>
       </c>
       <c r="I8" t="s">
-        <v>512</v>
+        <v>391</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>622</v>
+        <v>495</v>
       </c>
       <c r="K8" t="s">
-        <v>728</v>
+        <v>498</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>121</v>
+        <v>83</v>
       </c>
       <c r="C9" t="s">
-        <v>139</v>
+        <v>101</v>
       </c>
       <c r="D9" t="s">
-        <v>249</v>
+        <v>211</v>
       </c>
       <c r="E9" t="s">
-        <v>343</v>
+        <v>305</v>
       </c>
       <c r="H9" t="s">
-        <v>426</v>
+        <v>335</v>
       </c>
       <c r="I9" t="s">
-        <v>513</v>
+        <v>392</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>623</v>
+        <v>495</v>
       </c>
       <c r="K9" t="s">
-        <v>728</v>
+        <v>498</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>121</v>
+        <v>83</v>
       </c>
       <c r="C10" t="s">
-        <v>140</v>
+        <v>102</v>
       </c>
       <c r="D10" t="s">
-        <v>250</v>
+        <v>212</v>
       </c>
       <c r="E10" t="s">
-        <v>343</v>
+        <v>305</v>
       </c>
       <c r="H10" t="s">
-        <v>427</v>
+        <v>335</v>
       </c>
       <c r="I10" t="s">
-        <v>514</v>
+        <v>393</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>624</v>
+        <v>495</v>
       </c>
       <c r="K10" t="s">
-        <v>728</v>
+        <v>498</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>121</v>
+        <v>83</v>
       </c>
       <c r="C11" t="s">
-        <v>141</v>
+        <v>103</v>
       </c>
       <c r="D11" t="s">
-        <v>251</v>
+        <v>213</v>
       </c>
       <c r="E11" t="s">
-        <v>343</v>
+        <v>305</v>
       </c>
       <c r="H11" t="s">
-        <v>428</v>
+        <v>335</v>
       </c>
       <c r="I11" t="s">
-        <v>515</v>
+        <v>394</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>625</v>
+        <v>495</v>
       </c>
       <c r="K11" t="s">
-        <v>728</v>
+        <v>498</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>122</v>
+        <v>84</v>
       </c>
       <c r="C12" t="s">
-        <v>142</v>
+        <v>104</v>
       </c>
       <c r="D12" t="s">
-        <v>252</v>
+        <v>214</v>
       </c>
       <c r="E12" t="s">
-        <v>344</v>
+        <v>306</v>
       </c>
       <c r="H12" t="s">
-        <v>429</v>
+        <v>336</v>
       </c>
       <c r="I12" t="s">
-        <v>516</v>
+        <v>395</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>626</v>
+        <v>495</v>
       </c>
       <c r="K12" t="s">
-        <v>729</v>
+        <v>499</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>122</v>
+        <v>84</v>
       </c>
       <c r="C13" t="s">
-        <v>143</v>
+        <v>105</v>
       </c>
       <c r="D13" t="s">
-        <v>253</v>
+        <v>215</v>
       </c>
       <c r="E13" t="s">
-        <v>345</v>
+        <v>306</v>
       </c>
       <c r="H13" t="s">
-        <v>430</v>
+        <v>20</v>
       </c>
       <c r="I13" t="s">
-        <v>517</v>
+        <v>396</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>627</v>
+        <v>495</v>
       </c>
       <c r="K13" t="s">
-        <v>730</v>
+        <v>500</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>122</v>
+        <v>84</v>
       </c>
       <c r="C14" t="s">
-        <v>144</v>
+        <v>106</v>
       </c>
       <c r="D14" t="s">
-        <v>254</v>
+        <v>216</v>
       </c>
       <c r="E14" t="s">
-        <v>346</v>
+        <v>307</v>
       </c>
       <c r="H14" t="s">
-        <v>431</v>
+        <v>337</v>
       </c>
       <c r="I14" t="s">
-        <v>518</v>
+        <v>397</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>628</v>
+        <v>495</v>
       </c>
       <c r="K14" t="s">
-        <v>731</v>
+        <v>501</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>122</v>
+        <v>84</v>
       </c>
       <c r="C15" t="s">
-        <v>145</v>
+        <v>107</v>
       </c>
       <c r="D15" t="s">
-        <v>255</v>
+        <v>217</v>
       </c>
       <c r="E15" t="s">
-        <v>347</v>
+        <v>307</v>
       </c>
       <c r="H15" t="s">
-        <v>432</v>
+        <v>338</v>
       </c>
       <c r="I15" t="s">
-        <v>519</v>
+        <v>398</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>629</v>
+        <v>495</v>
       </c>
       <c r="K15" t="s">
-        <v>732</v>
+        <v>502</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>122</v>
+        <v>84</v>
       </c>
       <c r="C16" t="s">
-        <v>146</v>
+        <v>108</v>
       </c>
       <c r="D16" t="s">
-        <v>256</v>
+        <v>218</v>
       </c>
       <c r="E16" t="s">
-        <v>348</v>
+        <v>308</v>
       </c>
       <c r="H16" t="s">
-        <v>433</v>
+        <v>339</v>
       </c>
       <c r="I16" t="s">
-        <v>520</v>
+        <v>399</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>630</v>
+        <v>495</v>
       </c>
       <c r="K16" t="s">
-        <v>733</v>
+        <v>503</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B17" t="s">
-        <v>122</v>
+        <v>84</v>
       </c>
       <c r="C17" t="s">
-        <v>147</v>
+        <v>109</v>
       </c>
       <c r="D17" t="s">
-        <v>257</v>
+        <v>219</v>
       </c>
       <c r="H17" t="s">
-        <v>434</v>
+        <v>24</v>
       </c>
       <c r="I17" t="s">
-        <v>521</v>
+        <v>400</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>631</v>
+        <v>495</v>
       </c>
       <c r="K17" t="s">
-        <v>734</v>
+        <v>504</v>
       </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>122</v>
+        <v>84</v>
       </c>
       <c r="C18" t="s">
-        <v>148</v>
+        <v>110</v>
       </c>
       <c r="D18" t="s">
-        <v>258</v>
+        <v>220</v>
       </c>
       <c r="E18" t="s">
-        <v>349</v>
+        <v>309</v>
       </c>
       <c r="H18" t="s">
-        <v>435</v>
+        <v>340</v>
       </c>
       <c r="I18" t="s">
-        <v>522</v>
+        <v>401</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>632</v>
+        <v>495</v>
       </c>
       <c r="K18" t="s">
-        <v>735</v>
+        <v>504</v>
       </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B19" t="s">
-        <v>122</v>
+        <v>84</v>
       </c>
       <c r="C19" t="s">
-        <v>149</v>
+        <v>111</v>
       </c>
       <c r="D19" t="s">
-        <v>259</v>
+        <v>221</v>
       </c>
       <c r="H19" t="s">
-        <v>436</v>
+        <v>341</v>
       </c>
       <c r="I19" t="s">
-        <v>523</v>
+        <v>402</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>633</v>
+        <v>495</v>
       </c>
       <c r="K19" t="s">
-        <v>736</v>
+        <v>505</v>
       </c>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B20" t="s">
-        <v>122</v>
+        <v>84</v>
       </c>
       <c r="C20" t="s">
-        <v>150</v>
+        <v>112</v>
       </c>
       <c r="D20" t="s">
-        <v>260</v>
+        <v>222</v>
       </c>
       <c r="H20" t="s">
-        <v>437</v>
+        <v>341</v>
       </c>
       <c r="I20" t="s">
-        <v>524</v>
+        <v>403</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>634</v>
+        <v>495</v>
       </c>
       <c r="K20" t="s">
-        <v>736</v>
+        <v>505</v>
       </c>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B21" t="s">
-        <v>122</v>
+        <v>84</v>
       </c>
       <c r="C21" t="s">
-        <v>151</v>
+        <v>113</v>
       </c>
       <c r="D21" t="s">
-        <v>261</v>
+        <v>223</v>
       </c>
       <c r="H21" t="s">
-        <v>438</v>
+        <v>342</v>
       </c>
       <c r="I21" t="s">
-        <v>525</v>
+        <v>404</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>635</v>
+        <v>495</v>
       </c>
       <c r="K21" t="s">
-        <v>736</v>
+        <v>505</v>
       </c>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B22" t="s">
-        <v>123</v>
+        <v>85</v>
       </c>
       <c r="C22" t="s">
-        <v>152</v>
+        <v>114</v>
       </c>
       <c r="D22" t="s">
-        <v>262</v>
+        <v>224</v>
       </c>
       <c r="E22" t="s">
-        <v>350</v>
+        <v>305</v>
       </c>
       <c r="I22" t="s">
-        <v>526</v>
+        <v>405</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>636</v>
+        <v>495</v>
       </c>
       <c r="K22" t="s">
-        <v>737</v>
+        <v>506</v>
       </c>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B23" t="s">
-        <v>123</v>
+        <v>85</v>
       </c>
       <c r="C23" t="s">
-        <v>153</v>
+        <v>115</v>
       </c>
       <c r="D23" t="s">
-        <v>263</v>
+        <v>225</v>
       </c>
       <c r="E23" t="s">
-        <v>351</v>
+        <v>305</v>
       </c>
       <c r="H23" t="s">
-        <v>439</v>
+        <v>343</v>
       </c>
       <c r="I23" t="s">
-        <v>527</v>
+        <v>406</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>637</v>
+        <v>495</v>
       </c>
       <c r="K23" t="s">
-        <v>738</v>
+        <v>506</v>
       </c>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B24" t="s">
-        <v>123</v>
+        <v>85</v>
       </c>
       <c r="C24" t="s">
-        <v>154</v>
+        <v>116</v>
       </c>
       <c r="D24" t="s">
-        <v>264</v>
+        <v>226</v>
       </c>
       <c r="E24" t="s">
-        <v>352</v>
+        <v>305</v>
       </c>
       <c r="H24" t="s">
-        <v>440</v>
+        <v>344</v>
       </c>
       <c r="I24" t="s">
-        <v>528</v>
+        <v>407</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>638</v>
+        <v>495</v>
       </c>
       <c r="K24" t="s">
-        <v>739</v>
+        <v>507</v>
       </c>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B25" t="s">
-        <v>123</v>
+        <v>85</v>
       </c>
       <c r="C25" t="s">
-        <v>155</v>
+        <v>117</v>
       </c>
       <c r="D25" t="s">
-        <v>265</v>
+        <v>227</v>
       </c>
       <c r="E25" t="s">
-        <v>353</v>
+        <v>305</v>
       </c>
       <c r="H25" t="s">
-        <v>441</v>
+        <v>345</v>
       </c>
       <c r="I25" t="s">
-        <v>529</v>
+        <v>408</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>639</v>
+        <v>495</v>
       </c>
       <c r="K25" t="s">
-        <v>740</v>
+        <v>508</v>
       </c>
     </row>
     <row r="26" spans="1:11">
       <c r="A26" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B26" t="s">
-        <v>123</v>
+        <v>85</v>
       </c>
       <c r="C26" t="s">
-        <v>156</v>
+        <v>118</v>
       </c>
       <c r="D26" t="s">
-        <v>266</v>
+        <v>228</v>
       </c>
       <c r="E26" t="s">
-        <v>354</v>
+        <v>305</v>
       </c>
       <c r="H26" t="s">
-        <v>442</v>
+        <v>346</v>
       </c>
       <c r="I26" t="s">
-        <v>530</v>
+        <v>409</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>640</v>
+        <v>495</v>
       </c>
       <c r="K26" t="s">
-        <v>741</v>
+        <v>506</v>
       </c>
     </row>
     <row r="27" spans="1:11">
       <c r="A27" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B27" t="s">
-        <v>123</v>
+        <v>85</v>
       </c>
       <c r="C27" t="s">
-        <v>157</v>
+        <v>119</v>
       </c>
       <c r="D27" t="s">
-        <v>267</v>
+        <v>229</v>
       </c>
       <c r="H27" t="s">
-        <v>443</v>
+        <v>347</v>
       </c>
       <c r="I27" t="s">
-        <v>531</v>
+        <v>410</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>641</v>
+        <v>495</v>
       </c>
       <c r="K27" t="s">
-        <v>742</v>
+        <v>506</v>
       </c>
     </row>
     <row r="28" spans="1:11">
       <c r="A28" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B28" t="s">
-        <v>123</v>
+        <v>85</v>
       </c>
       <c r="C28" t="s">
-        <v>158</v>
+        <v>120</v>
       </c>
       <c r="D28" t="s">
-        <v>268</v>
+        <v>230</v>
       </c>
       <c r="E28" t="s">
-        <v>355</v>
+        <v>305</v>
       </c>
       <c r="H28" t="s">
-        <v>444</v>
+        <v>348</v>
       </c>
       <c r="I28" t="s">
-        <v>532</v>
+        <v>411</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>642</v>
+        <v>495</v>
       </c>
       <c r="K28" t="s">
-        <v>743</v>
+        <v>506</v>
       </c>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B29" t="s">
-        <v>123</v>
+        <v>85</v>
       </c>
       <c r="C29" t="s">
-        <v>159</v>
+        <v>121</v>
       </c>
       <c r="D29" t="s">
-        <v>269</v>
+        <v>231</v>
       </c>
       <c r="E29" t="s">
-        <v>356</v>
+        <v>305</v>
       </c>
       <c r="I29" t="s">
-        <v>533</v>
+        <v>412</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>643</v>
+        <v>495</v>
       </c>
       <c r="K29" t="s">
-        <v>737</v>
+        <v>506</v>
       </c>
     </row>
     <row r="30" spans="1:11">
       <c r="A30" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B30" t="s">
-        <v>123</v>
+        <v>85</v>
       </c>
       <c r="C30" t="s">
-        <v>160</v>
+        <v>122</v>
       </c>
       <c r="D30" t="s">
-        <v>270</v>
+        <v>232</v>
       </c>
       <c r="E30" t="s">
-        <v>357</v>
+        <v>305</v>
       </c>
       <c r="H30" t="s">
-        <v>445</v>
+        <v>349</v>
       </c>
       <c r="I30" t="s">
-        <v>534</v>
+        <v>413</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>644</v>
+        <v>495</v>
       </c>
       <c r="K30" t="s">
-        <v>737</v>
+        <v>506</v>
       </c>
     </row>
     <row r="31" spans="1:11">
       <c r="A31" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B31" t="s">
+        <v>85</v>
+      </c>
+      <c r="C31" t="s">
         <v>123</v>
       </c>
-      <c r="C31" t="s">
-        <v>161</v>
-      </c>
       <c r="D31" t="s">
-        <v>271</v>
+        <v>233</v>
       </c>
       <c r="E31" t="s">
-        <v>358</v>
+        <v>305</v>
       </c>
       <c r="H31" t="s">
-        <v>446</v>
+        <v>350</v>
       </c>
       <c r="I31" t="s">
-        <v>535</v>
+        <v>414</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>645</v>
+        <v>495</v>
       </c>
       <c r="K31" t="s">
-        <v>737</v>
+        <v>506</v>
       </c>
     </row>
     <row r="32" spans="1:11">
       <c r="A32" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B32" t="s">
+        <v>86</v>
+      </c>
+      <c r="C32" t="s">
         <v>124</v>
       </c>
-      <c r="C32" t="s">
-        <v>162</v>
-      </c>
       <c r="D32" t="s">
-        <v>272</v>
+        <v>234</v>
       </c>
       <c r="H32" t="s">
-        <v>447</v>
+        <v>351</v>
       </c>
       <c r="I32" t="s">
-        <v>536</v>
+        <v>415</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>646</v>
+        <v>495</v>
       </c>
       <c r="K32" t="s">
-        <v>744</v>
+        <v>509</v>
       </c>
     </row>
     <row r="33" spans="1:11">
       <c r="A33" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B33" t="s">
-        <v>124</v>
+        <v>86</v>
       </c>
       <c r="C33" t="s">
-        <v>163</v>
+        <v>125</v>
       </c>
       <c r="D33" t="s">
-        <v>273</v>
+        <v>235</v>
       </c>
       <c r="H33" t="s">
-        <v>448</v>
+        <v>352</v>
       </c>
       <c r="I33" t="s">
-        <v>537</v>
+        <v>416</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>647</v>
+        <v>495</v>
       </c>
       <c r="K33" t="s">
-        <v>744</v>
+        <v>509</v>
       </c>
     </row>
     <row r="34" spans="1:11">
       <c r="A34" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B34" t="s">
-        <v>124</v>
+        <v>86</v>
       </c>
       <c r="C34" t="s">
-        <v>164</v>
+        <v>126</v>
       </c>
       <c r="D34" t="s">
-        <v>250</v>
+        <v>212</v>
       </c>
       <c r="H34" t="s">
-        <v>449</v>
+        <v>353</v>
       </c>
       <c r="I34" t="s">
-        <v>538</v>
+        <v>417</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>648</v>
+        <v>495</v>
       </c>
       <c r="K34" t="s">
-        <v>745</v>
+        <v>510</v>
       </c>
     </row>
     <row r="35" spans="1:11">
       <c r="A35" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B35" t="s">
-        <v>124</v>
+        <v>86</v>
       </c>
       <c r="C35" t="s">
-        <v>165</v>
+        <v>127</v>
       </c>
       <c r="D35" t="s">
-        <v>248</v>
+        <v>210</v>
       </c>
       <c r="H35" t="s">
-        <v>449</v>
+        <v>353</v>
       </c>
       <c r="I35" t="s">
-        <v>539</v>
+        <v>418</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>649</v>
+        <v>495</v>
       </c>
       <c r="K35" t="s">
-        <v>745</v>
+        <v>510</v>
       </c>
     </row>
     <row r="36" spans="1:11">
       <c r="A36" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B36" t="s">
-        <v>124</v>
+        <v>86</v>
       </c>
       <c r="C36" t="s">
-        <v>166</v>
+        <v>128</v>
       </c>
       <c r="D36" t="s">
-        <v>274</v>
+        <v>236</v>
       </c>
       <c r="H36" t="s">
-        <v>449</v>
+        <v>353</v>
       </c>
       <c r="I36" t="s">
-        <v>540</v>
+        <v>419</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>650</v>
+        <v>495</v>
       </c>
       <c r="K36" t="s">
-        <v>745</v>
+        <v>510</v>
       </c>
     </row>
     <row r="37" spans="1:11">
       <c r="A37" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B37" t="s">
-        <v>124</v>
+        <v>86</v>
       </c>
       <c r="C37" t="s">
-        <v>167</v>
+        <v>129</v>
       </c>
       <c r="D37" t="s">
-        <v>274</v>
+        <v>236</v>
       </c>
       <c r="H37" t="s">
-        <v>449</v>
+        <v>353</v>
       </c>
       <c r="I37" t="s">
-        <v>541</v>
+        <v>420</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>651</v>
+        <v>495</v>
       </c>
       <c r="K37" t="s">
-        <v>745</v>
+        <v>510</v>
       </c>
     </row>
     <row r="38" spans="1:11">
       <c r="A38" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>124</v>
+        <v>86</v>
       </c>
       <c r="C38" t="s">
-        <v>168</v>
+        <v>130</v>
       </c>
       <c r="D38" t="s">
-        <v>275</v>
+        <v>237</v>
       </c>
       <c r="H38" t="s">
-        <v>449</v>
+        <v>353</v>
       </c>
       <c r="I38" t="s">
-        <v>542</v>
+        <v>421</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>652</v>
+        <v>495</v>
       </c>
       <c r="K38" t="s">
-        <v>745</v>
+        <v>510</v>
       </c>
     </row>
     <row r="39" spans="1:11">
       <c r="A39" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>124</v>
+        <v>86</v>
       </c>
       <c r="C39" t="s">
-        <v>169</v>
+        <v>131</v>
       </c>
       <c r="D39" t="s">
-        <v>276</v>
+        <v>238</v>
       </c>
       <c r="H39" t="s">
-        <v>449</v>
+        <v>353</v>
       </c>
       <c r="I39" t="s">
-        <v>543</v>
+        <v>422</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>653</v>
+        <v>495</v>
       </c>
       <c r="K39" t="s">
-        <v>745</v>
+        <v>510</v>
       </c>
     </row>
     <row r="40" spans="1:11">
       <c r="A40" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>124</v>
+        <v>86</v>
       </c>
       <c r="C40" t="s">
-        <v>170</v>
+        <v>132</v>
       </c>
       <c r="D40" t="s">
-        <v>277</v>
+        <v>239</v>
       </c>
       <c r="H40" t="s">
-        <v>449</v>
+        <v>353</v>
       </c>
       <c r="I40" t="s">
-        <v>544</v>
+        <v>423</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>654</v>
+        <v>495</v>
       </c>
       <c r="K40" t="s">
-        <v>745</v>
+        <v>510</v>
       </c>
     </row>
     <row r="41" spans="1:11">
       <c r="A41" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>124</v>
+        <v>86</v>
       </c>
       <c r="C41" t="s">
-        <v>171</v>
+        <v>133</v>
       </c>
       <c r="D41" t="s">
-        <v>278</v>
+        <v>240</v>
       </c>
       <c r="H41" t="s">
-        <v>449</v>
+        <v>353</v>
       </c>
       <c r="I41" t="s">
-        <v>545</v>
+        <v>424</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>655</v>
+        <v>495</v>
       </c>
       <c r="K41" t="s">
-        <v>745</v>
+        <v>510</v>
       </c>
     </row>
     <row r="42" spans="1:11">
       <c r="A42" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>125</v>
+        <v>87</v>
       </c>
       <c r="C42" t="s">
-        <v>172</v>
+        <v>134</v>
       </c>
       <c r="D42" t="s">
-        <v>279</v>
+        <v>241</v>
       </c>
       <c r="E42" t="s">
-        <v>359</v>
+        <v>305</v>
       </c>
       <c r="H42" t="s">
-        <v>450</v>
+        <v>41</v>
       </c>
       <c r="I42" t="s">
-        <v>546</v>
+        <v>425</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>656</v>
+        <v>495</v>
       </c>
       <c r="K42" t="s">
-        <v>123</v>
+        <v>85</v>
       </c>
     </row>
     <row r="43" spans="1:11">
       <c r="A43" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>125</v>
+        <v>87</v>
       </c>
       <c r="C43" t="s">
-        <v>173</v>
+        <v>135</v>
       </c>
       <c r="D43" t="s">
-        <v>280</v>
+        <v>242</v>
       </c>
       <c r="E43" t="s">
-        <v>360</v>
+        <v>305</v>
       </c>
       <c r="H43" t="s">
-        <v>451</v>
+        <v>354</v>
       </c>
       <c r="I43" t="s">
-        <v>547</v>
+        <v>426</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>657</v>
+        <v>495</v>
       </c>
       <c r="K43" t="s">
-        <v>123</v>
+        <v>85</v>
       </c>
     </row>
     <row r="44" spans="1:11">
       <c r="A44" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>125</v>
+        <v>87</v>
       </c>
       <c r="C44" t="s">
-        <v>174</v>
+        <v>136</v>
       </c>
       <c r="D44" t="s">
-        <v>281</v>
+        <v>243</v>
       </c>
       <c r="E44" t="s">
-        <v>361</v>
+        <v>305</v>
       </c>
       <c r="F44" t="s">
-        <v>406</v>
+        <v>330</v>
       </c>
       <c r="H44" t="s">
-        <v>452</v>
+        <v>355</v>
       </c>
       <c r="I44" t="s">
-        <v>548</v>
+        <v>427</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>658</v>
+        <v>495</v>
       </c>
       <c r="K44" t="s">
-        <v>746</v>
+        <v>511</v>
       </c>
     </row>
     <row r="45" spans="1:11">
       <c r="A45" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>125</v>
+        <v>87</v>
       </c>
       <c r="C45" t="s">
-        <v>175</v>
+        <v>137</v>
       </c>
       <c r="D45" t="s">
-        <v>282</v>
+        <v>244</v>
       </c>
       <c r="E45" t="s">
-        <v>361</v>
+        <v>305</v>
       </c>
       <c r="F45" t="s">
-        <v>407</v>
+        <v>331</v>
       </c>
       <c r="H45" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="I45" t="s">
-        <v>549</v>
+        <v>428</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>659</v>
+        <v>495</v>
       </c>
       <c r="K45" t="s">
-        <v>747</v>
+        <v>512</v>
       </c>
     </row>
     <row r="46" spans="1:11">
       <c r="A46" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>125</v>
+        <v>87</v>
       </c>
       <c r="C46" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="D46" t="s">
-        <v>283</v>
+        <v>245</v>
       </c>
       <c r="E46" t="s">
-        <v>361</v>
+        <v>305</v>
       </c>
       <c r="F46" t="s">
-        <v>408</v>
+        <v>331</v>
       </c>
       <c r="H46" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="I46" t="s">
-        <v>550</v>
+        <v>429</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>660</v>
+        <v>495</v>
       </c>
       <c r="K46" t="s">
-        <v>748</v>
+        <v>513</v>
       </c>
     </row>
     <row r="47" spans="1:11">
       <c r="A47" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="B47" t="s">
-        <v>125</v>
+        <v>87</v>
       </c>
       <c r="C47" t="s">
-        <v>177</v>
+        <v>139</v>
       </c>
       <c r="D47" t="s">
-        <v>284</v>
+        <v>246</v>
       </c>
       <c r="E47" t="s">
-        <v>362</v>
+        <v>310</v>
       </c>
       <c r="H47" t="s">
-        <v>453</v>
+        <v>44</v>
       </c>
       <c r="I47" t="s">
-        <v>551</v>
+        <v>430</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>661</v>
+        <v>495</v>
       </c>
       <c r="K47" t="s">
-        <v>749</v>
+        <v>514</v>
       </c>
     </row>
     <row r="48" spans="1:11">
       <c r="A48" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="B48" t="s">
-        <v>125</v>
+        <v>87</v>
       </c>
       <c r="C48" t="s">
-        <v>178</v>
+        <v>140</v>
       </c>
       <c r="D48" t="s">
-        <v>285</v>
+        <v>247</v>
       </c>
       <c r="E48" t="s">
-        <v>363</v>
+        <v>311</v>
       </c>
       <c r="H48" t="s">
-        <v>454</v>
+        <v>44</v>
       </c>
       <c r="I48" t="s">
-        <v>552</v>
+        <v>431</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>662</v>
+        <v>495</v>
       </c>
       <c r="K48" t="s">
-        <v>749</v>
+        <v>514</v>
       </c>
     </row>
     <row r="49" spans="1:11">
       <c r="A49" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="B49" t="s">
-        <v>125</v>
+        <v>87</v>
       </c>
       <c r="C49" t="s">
-        <v>179</v>
+        <v>141</v>
       </c>
       <c r="D49" t="s">
-        <v>286</v>
+        <v>248</v>
       </c>
       <c r="E49" t="s">
-        <v>364</v>
+        <v>312</v>
       </c>
       <c r="H49" t="s">
-        <v>455</v>
+        <v>44</v>
       </c>
       <c r="I49" t="s">
-        <v>553</v>
+        <v>432</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>663</v>
+        <v>495</v>
       </c>
       <c r="K49" t="s">
-        <v>749</v>
+        <v>514</v>
       </c>
     </row>
     <row r="50" spans="1:11">
       <c r="A50" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="B50" t="s">
-        <v>125</v>
+        <v>87</v>
       </c>
       <c r="C50" t="s">
-        <v>180</v>
+        <v>142</v>
       </c>
       <c r="D50" t="s">
-        <v>287</v>
+        <v>249</v>
       </c>
       <c r="E50" t="s">
-        <v>365</v>
+        <v>313</v>
       </c>
       <c r="H50" t="s">
-        <v>456</v>
+        <v>44</v>
       </c>
       <c r="I50" t="s">
-        <v>554</v>
+        <v>433</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>664</v>
+        <v>495</v>
       </c>
       <c r="K50" t="s">
-        <v>749</v>
+        <v>514</v>
       </c>
     </row>
     <row r="51" spans="1:11">
       <c r="A51" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="B51" t="s">
-        <v>125</v>
+        <v>87</v>
       </c>
       <c r="C51" t="s">
-        <v>181</v>
+        <v>143</v>
       </c>
       <c r="D51" t="s">
-        <v>288</v>
+        <v>250</v>
       </c>
       <c r="E51" t="s">
-        <v>366</v>
+        <v>314</v>
       </c>
       <c r="H51" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="I51" t="s">
-        <v>555</v>
+        <v>434</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>665</v>
+        <v>495</v>
       </c>
       <c r="K51" t="s">
-        <v>749</v>
+        <v>514</v>
       </c>
     </row>
     <row r="52" spans="1:11">
       <c r="A52" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="B52" t="s">
-        <v>126</v>
+        <v>88</v>
       </c>
       <c r="C52" t="s">
-        <v>182</v>
+        <v>144</v>
       </c>
       <c r="D52" t="s">
-        <v>289</v>
+        <v>251</v>
       </c>
       <c r="H52" t="s">
-        <v>457</v>
+        <v>356</v>
       </c>
       <c r="I52" t="s">
-        <v>556</v>
+        <v>435</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>666</v>
+        <v>495</v>
       </c>
       <c r="K52" t="s">
-        <v>750</v>
+        <v>515</v>
       </c>
     </row>
     <row r="53" spans="1:11">
       <c r="A53" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="B53" t="s">
-        <v>126</v>
+        <v>88</v>
       </c>
       <c r="C53" t="s">
-        <v>183</v>
+        <v>145</v>
       </c>
       <c r="D53" t="s">
-        <v>290</v>
+        <v>252</v>
       </c>
       <c r="H53" t="s">
-        <v>458</v>
+        <v>357</v>
       </c>
       <c r="I53" t="s">
-        <v>557</v>
+        <v>436</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>667</v>
+        <v>495</v>
       </c>
       <c r="K53" t="s">
-        <v>750</v>
+        <v>515</v>
       </c>
     </row>
     <row r="54" spans="1:11">
       <c r="A54" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="B54" t="s">
-        <v>126</v>
+        <v>88</v>
       </c>
       <c r="C54" t="s">
-        <v>184</v>
+        <v>146</v>
       </c>
       <c r="D54" t="s">
-        <v>291</v>
+        <v>253</v>
       </c>
       <c r="H54" t="s">
-        <v>459</v>
+        <v>358</v>
       </c>
       <c r="I54" t="s">
-        <v>558</v>
+        <v>437</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>668</v>
+        <v>495</v>
       </c>
       <c r="K54" t="s">
-        <v>750</v>
+        <v>515</v>
       </c>
     </row>
     <row r="55" spans="1:11">
       <c r="A55" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="B55" t="s">
-        <v>126</v>
+        <v>88</v>
       </c>
       <c r="C55" t="s">
-        <v>185</v>
+        <v>147</v>
       </c>
       <c r="D55" t="s">
-        <v>292</v>
+        <v>254</v>
       </c>
       <c r="H55" t="s">
-        <v>460</v>
+        <v>359</v>
       </c>
       <c r="I55" t="s">
-        <v>559</v>
+        <v>438</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>669</v>
+        <v>495</v>
       </c>
       <c r="K55" t="s">
-        <v>750</v>
+        <v>515</v>
       </c>
     </row>
     <row r="56" spans="1:11">
       <c r="A56" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="B56" t="s">
-        <v>126</v>
+        <v>88</v>
       </c>
       <c r="C56" t="s">
-        <v>186</v>
+        <v>148</v>
       </c>
       <c r="D56" t="s">
-        <v>293</v>
+        <v>255</v>
       </c>
       <c r="H56" t="s">
-        <v>461</v>
+        <v>358</v>
       </c>
       <c r="I56" t="s">
-        <v>560</v>
+        <v>439</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>670</v>
+        <v>495</v>
       </c>
       <c r="K56" t="s">
-        <v>750</v>
+        <v>515</v>
       </c>
     </row>
     <row r="57" spans="1:11">
       <c r="A57" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="B57" t="s">
-        <v>126</v>
+        <v>88</v>
       </c>
       <c r="C57" t="s">
-        <v>187</v>
+        <v>149</v>
       </c>
       <c r="D57" t="s">
-        <v>294</v>
+        <v>256</v>
       </c>
       <c r="H57" t="s">
-        <v>462</v>
+        <v>360</v>
       </c>
       <c r="I57" t="s">
-        <v>561</v>
+        <v>440</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>671</v>
+        <v>495</v>
       </c>
       <c r="K57" t="s">
-        <v>750</v>
+        <v>515</v>
       </c>
     </row>
     <row r="58" spans="1:11">
       <c r="A58" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="B58" t="s">
-        <v>126</v>
+        <v>88</v>
       </c>
       <c r="C58" t="s">
-        <v>188</v>
+        <v>150</v>
       </c>
       <c r="D58" t="s">
-        <v>295</v>
+        <v>257</v>
       </c>
       <c r="H58" t="s">
-        <v>463</v>
+        <v>51</v>
       </c>
       <c r="I58" t="s">
-        <v>562</v>
+        <v>441</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>672</v>
+        <v>495</v>
       </c>
       <c r="K58" t="s">
-        <v>750</v>
+        <v>515</v>
       </c>
     </row>
     <row r="59" spans="1:11">
       <c r="A59" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="B59" t="s">
-        <v>126</v>
+        <v>88</v>
       </c>
       <c r="C59" t="s">
-        <v>189</v>
+        <v>151</v>
       </c>
       <c r="D59" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="H59" t="s">
-        <v>464</v>
+        <v>361</v>
       </c>
       <c r="I59" t="s">
-        <v>563</v>
+        <v>442</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>673</v>
+        <v>495</v>
       </c>
       <c r="K59" t="s">
-        <v>750</v>
+        <v>515</v>
       </c>
     </row>
     <row r="60" spans="1:11">
       <c r="A60" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="B60" t="s">
-        <v>126</v>
+        <v>88</v>
       </c>
       <c r="C60" t="s">
-        <v>190</v>
+        <v>152</v>
       </c>
       <c r="D60" t="s">
-        <v>297</v>
+        <v>259</v>
       </c>
       <c r="H60" t="s">
-        <v>465</v>
+        <v>361</v>
       </c>
       <c r="I60" t="s">
-        <v>564</v>
+        <v>443</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>674</v>
+        <v>495</v>
       </c>
       <c r="K60" t="s">
-        <v>750</v>
+        <v>515</v>
       </c>
     </row>
     <row r="61" spans="1:11">
       <c r="A61" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="B61" t="s">
-        <v>126</v>
+        <v>88</v>
       </c>
       <c r="C61" t="s">
-        <v>191</v>
+        <v>153</v>
       </c>
       <c r="D61" t="s">
-        <v>298</v>
+        <v>260</v>
       </c>
       <c r="H61" t="s">
-        <v>466</v>
+        <v>362</v>
       </c>
       <c r="I61" t="s">
-        <v>565</v>
+        <v>444</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>675</v>
+        <v>495</v>
       </c>
       <c r="K61" t="s">
-        <v>750</v>
+        <v>515</v>
       </c>
     </row>
     <row r="62" spans="1:11">
       <c r="A62" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="B62" t="s">
-        <v>127</v>
+        <v>89</v>
       </c>
       <c r="C62" t="s">
-        <v>192</v>
+        <v>154</v>
       </c>
       <c r="D62" t="s">
-        <v>299</v>
+        <v>261</v>
       </c>
       <c r="E62" t="s">
-        <v>367</v>
+        <v>315</v>
       </c>
       <c r="H62" t="s">
-        <v>467</v>
+        <v>363</v>
       </c>
       <c r="I62" t="s">
-        <v>566</v>
+        <v>445</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>676</v>
+        <v>495</v>
       </c>
       <c r="K62" t="s">
-        <v>751</v>
+        <v>516</v>
       </c>
     </row>
     <row r="63" spans="1:11">
       <c r="A63" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="B63" t="s">
-        <v>127</v>
+        <v>89</v>
       </c>
       <c r="C63" t="s">
-        <v>193</v>
+        <v>155</v>
       </c>
       <c r="D63" t="s">
-        <v>300</v>
+        <v>262</v>
       </c>
       <c r="E63" t="s">
-        <v>368</v>
+        <v>315</v>
       </c>
       <c r="H63" t="s">
-        <v>468</v>
+        <v>363</v>
       </c>
       <c r="I63" t="s">
-        <v>567</v>
+        <v>446</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>677</v>
+        <v>495</v>
       </c>
       <c r="K63" t="s">
-        <v>752</v>
+        <v>517</v>
       </c>
     </row>
     <row r="64" spans="1:11">
       <c r="A64" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="B64" t="s">
-        <v>127</v>
+        <v>89</v>
       </c>
       <c r="C64" t="s">
-        <v>194</v>
+        <v>156</v>
       </c>
       <c r="D64" t="s">
-        <v>301</v>
+        <v>263</v>
       </c>
       <c r="E64" t="s">
-        <v>369</v>
+        <v>315</v>
       </c>
       <c r="H64" t="s">
-        <v>469</v>
+        <v>363</v>
       </c>
       <c r="I64" t="s">
-        <v>568</v>
+        <v>447</v>
       </c>
       <c r="J64" s="2" t="s">
-        <v>678</v>
+        <v>495</v>
       </c>
       <c r="K64" t="s">
-        <v>751</v>
+        <v>516</v>
       </c>
     </row>
     <row r="65" spans="1:11">
       <c r="A65" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="B65" t="s">
-        <v>127</v>
+        <v>89</v>
       </c>
       <c r="C65" t="s">
-        <v>195</v>
+        <v>157</v>
       </c>
       <c r="D65" t="s">
-        <v>302</v>
+        <v>264</v>
       </c>
       <c r="E65" t="s">
-        <v>370</v>
+        <v>315</v>
       </c>
       <c r="H65" t="s">
-        <v>470</v>
+        <v>364</v>
       </c>
       <c r="I65" t="s">
-        <v>569</v>
+        <v>448</v>
       </c>
       <c r="J65" s="2" t="s">
-        <v>679</v>
+        <v>495</v>
       </c>
       <c r="K65" t="s">
-        <v>751</v>
+        <v>516</v>
       </c>
     </row>
     <row r="66" spans="1:11">
       <c r="A66" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="B66" t="s">
-        <v>127</v>
+        <v>89</v>
       </c>
       <c r="C66" t="s">
-        <v>196</v>
+        <v>158</v>
       </c>
       <c r="D66" t="s">
-        <v>303</v>
+        <v>265</v>
       </c>
       <c r="E66" t="s">
-        <v>371</v>
+        <v>315</v>
       </c>
       <c r="H66" t="s">
-        <v>471</v>
+        <v>365</v>
       </c>
       <c r="I66" t="s">
-        <v>570</v>
+        <v>449</v>
       </c>
       <c r="J66" s="2" t="s">
-        <v>680</v>
+        <v>495</v>
       </c>
       <c r="K66" t="s">
-        <v>751</v>
+        <v>516</v>
       </c>
     </row>
     <row r="67" spans="1:11">
       <c r="A67" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="B67" t="s">
-        <v>127</v>
+        <v>89</v>
       </c>
       <c r="C67" t="s">
-        <v>197</v>
+        <v>159</v>
       </c>
       <c r="D67" t="s">
-        <v>304</v>
+        <v>266</v>
       </c>
       <c r="E67" t="s">
-        <v>372</v>
+        <v>315</v>
       </c>
       <c r="H67" t="s">
-        <v>472</v>
+        <v>366</v>
       </c>
       <c r="I67" t="s">
-        <v>571</v>
+        <v>450</v>
       </c>
       <c r="J67" s="2" t="s">
-        <v>681</v>
+        <v>495</v>
       </c>
       <c r="K67" t="s">
-        <v>751</v>
+        <v>516</v>
       </c>
     </row>
     <row r="68" spans="1:11">
       <c r="A68" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="B68" t="s">
-        <v>127</v>
+        <v>89</v>
       </c>
       <c r="C68" t="s">
-        <v>198</v>
+        <v>160</v>
       </c>
       <c r="D68" t="s">
-        <v>305</v>
+        <v>267</v>
       </c>
       <c r="E68" t="s">
-        <v>373</v>
+        <v>316</v>
       </c>
       <c r="H68" t="s">
-        <v>473</v>
+        <v>367</v>
       </c>
       <c r="I68" t="s">
-        <v>572</v>
+        <v>451</v>
       </c>
       <c r="J68" s="2" t="s">
-        <v>682</v>
+        <v>495</v>
       </c>
       <c r="K68" t="s">
-        <v>753</v>
+        <v>518</v>
       </c>
     </row>
     <row r="69" spans="1:11">
       <c r="A69" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="B69" t="s">
-        <v>127</v>
+        <v>89</v>
       </c>
       <c r="C69" t="s">
-        <v>199</v>
+        <v>161</v>
       </c>
       <c r="D69" t="s">
-        <v>305</v>
+        <v>267</v>
       </c>
       <c r="E69" t="s">
-        <v>374</v>
+        <v>316</v>
       </c>
       <c r="H69" t="s">
-        <v>473</v>
+        <v>367</v>
       </c>
       <c r="I69" t="s">
-        <v>573</v>
+        <v>452</v>
       </c>
       <c r="J69" s="2" t="s">
-        <v>683</v>
+        <v>495</v>
       </c>
       <c r="K69" t="s">
-        <v>753</v>
+        <v>518</v>
       </c>
     </row>
     <row r="70" spans="1:11">
       <c r="A70" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="B70" t="s">
-        <v>127</v>
+        <v>89</v>
       </c>
       <c r="C70" t="s">
-        <v>200</v>
+        <v>162</v>
       </c>
       <c r="D70" t="s">
-        <v>305</v>
+        <v>267</v>
       </c>
       <c r="E70" t="s">
-        <v>375</v>
+        <v>316</v>
       </c>
       <c r="H70" t="s">
-        <v>473</v>
+        <v>367</v>
       </c>
       <c r="I70" t="s">
-        <v>574</v>
+        <v>453</v>
       </c>
       <c r="J70" s="2" t="s">
-        <v>684</v>
+        <v>495</v>
       </c>
       <c r="K70" t="s">
-        <v>753</v>
+        <v>518</v>
       </c>
     </row>
     <row r="71" spans="1:11">
       <c r="A71" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="B71" t="s">
-        <v>127</v>
+        <v>89</v>
       </c>
       <c r="C71" t="s">
-        <v>201</v>
+        <v>163</v>
       </c>
       <c r="D71" t="s">
-        <v>306</v>
+        <v>268</v>
       </c>
       <c r="E71" t="s">
-        <v>376</v>
+        <v>317</v>
       </c>
       <c r="I71" t="s">
-        <v>575</v>
+        <v>454</v>
       </c>
       <c r="J71" s="2" t="s">
-        <v>685</v>
+        <v>495</v>
       </c>
       <c r="K71" t="s">
-        <v>753</v>
+        <v>518</v>
       </c>
     </row>
     <row r="72" spans="1:11">
       <c r="A72" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="B72" t="s">
-        <v>128</v>
+        <v>90</v>
       </c>
       <c r="C72" t="s">
-        <v>202</v>
+        <v>164</v>
       </c>
       <c r="D72" t="s">
-        <v>307</v>
+        <v>269</v>
       </c>
       <c r="E72" t="s">
-        <v>377</v>
+        <v>318</v>
       </c>
       <c r="H72" t="s">
-        <v>474</v>
+        <v>368</v>
       </c>
       <c r="I72" t="s">
-        <v>576</v>
+        <v>455</v>
       </c>
       <c r="J72" s="2" t="s">
-        <v>686</v>
+        <v>495</v>
       </c>
       <c r="K72" t="s">
-        <v>754</v>
+        <v>519</v>
       </c>
     </row>
     <row r="73" spans="1:11">
       <c r="A73" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="B73" t="s">
-        <v>128</v>
+        <v>90</v>
       </c>
       <c r="C73" t="s">
-        <v>203</v>
+        <v>165</v>
       </c>
       <c r="D73" t="s">
-        <v>308</v>
+        <v>270</v>
       </c>
       <c r="E73" t="s">
-        <v>378</v>
+        <v>319</v>
       </c>
       <c r="H73" t="s">
-        <v>474</v>
+        <v>368</v>
       </c>
       <c r="I73" t="s">
-        <v>577</v>
+        <v>456</v>
       </c>
       <c r="J73" s="2" t="s">
-        <v>687</v>
+        <v>495</v>
       </c>
       <c r="K73" t="s">
-        <v>754</v>
+        <v>519</v>
       </c>
     </row>
     <row r="74" spans="1:11">
       <c r="A74" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="B74" t="s">
-        <v>128</v>
+        <v>90</v>
       </c>
       <c r="C74" t="s">
-        <v>204</v>
+        <v>166</v>
       </c>
       <c r="D74" t="s">
-        <v>309</v>
+        <v>271</v>
       </c>
       <c r="E74" t="s">
-        <v>379</v>
+        <v>320</v>
       </c>
       <c r="H74" t="s">
-        <v>475</v>
+        <v>369</v>
       </c>
       <c r="I74" t="s">
-        <v>578</v>
+        <v>457</v>
       </c>
       <c r="J74" s="2" t="s">
-        <v>688</v>
+        <v>495</v>
       </c>
       <c r="K74" t="s">
-        <v>755</v>
+        <v>520</v>
       </c>
     </row>
     <row r="75" spans="1:11">
       <c r="A75" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="B75" t="s">
-        <v>128</v>
+        <v>90</v>
       </c>
       <c r="C75" t="s">
-        <v>205</v>
+        <v>167</v>
       </c>
       <c r="D75" t="s">
-        <v>310</v>
+        <v>272</v>
       </c>
       <c r="E75" t="s">
-        <v>380</v>
+        <v>305</v>
       </c>
       <c r="H75" t="s">
-        <v>476</v>
+        <v>369</v>
       </c>
       <c r="I75" t="s">
-        <v>579</v>
+        <v>458</v>
       </c>
       <c r="J75" s="2" t="s">
-        <v>689</v>
+        <v>495</v>
       </c>
       <c r="K75" t="s">
-        <v>755</v>
+        <v>520</v>
       </c>
     </row>
     <row r="76" spans="1:11">
       <c r="A76" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="B76" t="s">
-        <v>128</v>
+        <v>90</v>
       </c>
       <c r="C76" t="s">
-        <v>206</v>
+        <v>168</v>
       </c>
       <c r="D76" t="s">
-        <v>311</v>
+        <v>273</v>
       </c>
       <c r="E76" t="s">
-        <v>381</v>
+        <v>305</v>
       </c>
       <c r="H76" t="s">
-        <v>477</v>
+        <v>369</v>
       </c>
       <c r="I76" t="s">
-        <v>580</v>
+        <v>459</v>
       </c>
       <c r="J76" s="2" t="s">
-        <v>690</v>
+        <v>495</v>
       </c>
       <c r="K76" t="s">
-        <v>755</v>
+        <v>520</v>
       </c>
     </row>
     <row r="77" spans="1:11">
       <c r="A77" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="B77" t="s">
-        <v>128</v>
+        <v>90</v>
       </c>
       <c r="C77" t="s">
-        <v>207</v>
+        <v>169</v>
       </c>
       <c r="D77" t="s">
-        <v>312</v>
+        <v>274</v>
       </c>
       <c r="E77" t="s">
-        <v>382</v>
+        <v>305</v>
       </c>
       <c r="H77" t="s">
-        <v>478</v>
+        <v>369</v>
       </c>
       <c r="I77" t="s">
-        <v>581</v>
+        <v>460</v>
       </c>
       <c r="J77" s="2" t="s">
-        <v>691</v>
+        <v>495</v>
       </c>
       <c r="K77" t="s">
-        <v>755</v>
+        <v>520</v>
       </c>
     </row>
     <row r="78" spans="1:11">
       <c r="A78" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="B78" t="s">
-        <v>128</v>
+        <v>90</v>
       </c>
       <c r="C78" t="s">
-        <v>208</v>
+        <v>170</v>
       </c>
       <c r="D78" t="s">
-        <v>313</v>
+        <v>275</v>
       </c>
       <c r="E78" t="s">
-        <v>383</v>
+        <v>305</v>
       </c>
       <c r="H78" t="s">
-        <v>479</v>
+        <v>369</v>
       </c>
       <c r="I78" t="s">
-        <v>582</v>
+        <v>461</v>
       </c>
       <c r="J78" s="2" t="s">
-        <v>692</v>
+        <v>495</v>
       </c>
       <c r="K78" t="s">
-        <v>755</v>
+        <v>520</v>
       </c>
     </row>
     <row r="79" spans="1:11">
       <c r="A79" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="B79" t="s">
-        <v>128</v>
+        <v>90</v>
       </c>
       <c r="C79" t="s">
-        <v>209</v>
+        <v>171</v>
       </c>
       <c r="D79" t="s">
-        <v>276</v>
+        <v>238</v>
       </c>
       <c r="E79" t="s">
-        <v>384</v>
+        <v>305</v>
       </c>
       <c r="H79" t="s">
-        <v>480</v>
+        <v>369</v>
       </c>
       <c r="I79" t="s">
-        <v>583</v>
+        <v>462</v>
       </c>
       <c r="J79" s="2" t="s">
-        <v>693</v>
+        <v>495</v>
       </c>
       <c r="K79" t="s">
-        <v>755</v>
+        <v>520</v>
       </c>
     </row>
     <row r="80" spans="1:11">
       <c r="A80" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="B80" t="s">
-        <v>128</v>
+        <v>90</v>
       </c>
       <c r="C80" t="s">
-        <v>210</v>
+        <v>172</v>
       </c>
       <c r="D80" t="s">
-        <v>276</v>
+        <v>238</v>
       </c>
       <c r="E80" t="s">
-        <v>385</v>
+        <v>305</v>
       </c>
       <c r="H80" t="s">
-        <v>480</v>
+        <v>369</v>
       </c>
       <c r="I80" t="s">
-        <v>584</v>
+        <v>463</v>
       </c>
       <c r="J80" s="2" t="s">
-        <v>694</v>
+        <v>495</v>
       </c>
       <c r="K80" t="s">
-        <v>755</v>
+        <v>520</v>
       </c>
     </row>
     <row r="81" spans="1:11">
       <c r="A81" t="s">
+        <v>65</v>
+      </c>
+      <c r="B81" t="s">
         <v>90</v>
       </c>
-      <c r="B81" t="s">
-        <v>128</v>
-      </c>
       <c r="C81" t="s">
-        <v>211</v>
+        <v>173</v>
       </c>
       <c r="D81" t="s">
-        <v>314</v>
+        <v>276</v>
       </c>
       <c r="E81" t="s">
-        <v>386</v>
+        <v>305</v>
       </c>
       <c r="H81" t="s">
-        <v>481</v>
+        <v>369</v>
       </c>
       <c r="I81" t="s">
-        <v>585</v>
+        <v>464</v>
       </c>
       <c r="J81" s="2" t="s">
-        <v>695</v>
+        <v>495</v>
       </c>
       <c r="K81" t="s">
-        <v>755</v>
+        <v>520</v>
       </c>
     </row>
     <row r="82" spans="1:11">
       <c r="A82" t="s">
+        <v>66</v>
+      </c>
+      <c r="B82" t="s">
         <v>91</v>
       </c>
-      <c r="B82" t="s">
-        <v>129</v>
-      </c>
       <c r="C82" t="s">
-        <v>212</v>
+        <v>174</v>
       </c>
       <c r="D82" t="s">
-        <v>315</v>
+        <v>277</v>
       </c>
       <c r="E82" t="s">
-        <v>387</v>
+        <v>321</v>
       </c>
       <c r="H82" t="s">
-        <v>482</v>
+        <v>370</v>
       </c>
       <c r="I82" t="s">
-        <v>586</v>
+        <v>465</v>
       </c>
       <c r="J82" s="2" t="s">
-        <v>696</v>
+        <v>495</v>
       </c>
       <c r="K82" t="s">
-        <v>756</v>
+        <v>521</v>
       </c>
     </row>
     <row r="83" spans="1:11">
       <c r="A83" t="s">
-        <v>92</v>
+        <v>66</v>
       </c>
       <c r="B83" t="s">
-        <v>129</v>
+        <v>91</v>
       </c>
       <c r="C83" t="s">
-        <v>213</v>
+        <v>175</v>
       </c>
       <c r="D83" t="s">
-        <v>316</v>
+        <v>278</v>
       </c>
       <c r="E83" t="s">
-        <v>387</v>
+        <v>321</v>
       </c>
       <c r="H83" t="s">
-        <v>482</v>
+        <v>370</v>
       </c>
       <c r="I83" t="s">
-        <v>587</v>
+        <v>466</v>
       </c>
       <c r="J83" s="2" t="s">
-        <v>697</v>
+        <v>495</v>
       </c>
       <c r="K83" t="s">
-        <v>756</v>
+        <v>521</v>
       </c>
     </row>
     <row r="84" spans="1:11">
       <c r="A84" t="s">
-        <v>93</v>
+        <v>67</v>
       </c>
       <c r="B84" t="s">
-        <v>129</v>
+        <v>91</v>
       </c>
       <c r="C84" t="s">
-        <v>214</v>
+        <v>176</v>
       </c>
       <c r="D84" t="s">
-        <v>317</v>
+        <v>279</v>
       </c>
       <c r="E84" t="s">
-        <v>388</v>
+        <v>322</v>
       </c>
       <c r="H84" t="s">
-        <v>483</v>
+        <v>370</v>
       </c>
       <c r="I84" t="s">
-        <v>588</v>
+        <v>467</v>
       </c>
       <c r="J84" s="2" t="s">
-        <v>698</v>
+        <v>495</v>
       </c>
       <c r="K84" t="s">
-        <v>756</v>
+        <v>521</v>
       </c>
     </row>
     <row r="85" spans="1:11">
       <c r="A85" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="B85" t="s">
-        <v>129</v>
+        <v>91</v>
       </c>
       <c r="C85" t="s">
-        <v>215</v>
+        <v>177</v>
       </c>
       <c r="D85" t="s">
-        <v>318</v>
+        <v>280</v>
       </c>
       <c r="E85" t="s">
-        <v>389</v>
+        <v>323</v>
       </c>
       <c r="H85" t="s">
-        <v>483</v>
+        <v>370</v>
       </c>
       <c r="I85" t="s">
-        <v>589</v>
+        <v>468</v>
       </c>
       <c r="J85" s="2" t="s">
-        <v>699</v>
+        <v>495</v>
       </c>
       <c r="K85" t="s">
-        <v>756</v>
+        <v>521</v>
       </c>
     </row>
     <row r="86" spans="1:11">
       <c r="A86" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="B86" t="s">
-        <v>129</v>
+        <v>91</v>
       </c>
       <c r="C86" t="s">
-        <v>216</v>
+        <v>178</v>
       </c>
       <c r="D86" t="s">
-        <v>319</v>
+        <v>281</v>
       </c>
       <c r="E86" t="s">
-        <v>390</v>
+        <v>324</v>
       </c>
       <c r="H86" t="s">
-        <v>483</v>
+        <v>370</v>
       </c>
       <c r="I86" t="s">
-        <v>590</v>
+        <v>469</v>
       </c>
       <c r="J86" s="2" t="s">
-        <v>700</v>
+        <v>495</v>
       </c>
       <c r="K86" t="s">
-        <v>756</v>
+        <v>521</v>
       </c>
     </row>
     <row r="87" spans="1:11">
       <c r="A87" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="B87" t="s">
-        <v>129</v>
+        <v>91</v>
       </c>
       <c r="C87" t="s">
-        <v>217</v>
+        <v>179</v>
       </c>
       <c r="D87" t="s">
-        <v>320</v>
+        <v>282</v>
       </c>
       <c r="E87" t="s">
-        <v>391</v>
+        <v>325</v>
       </c>
       <c r="H87" t="s">
-        <v>484</v>
+        <v>370</v>
       </c>
       <c r="I87" t="s">
-        <v>591</v>
+        <v>470</v>
       </c>
       <c r="J87" s="2" t="s">
-        <v>701</v>
+        <v>495</v>
       </c>
       <c r="K87" t="s">
-        <v>756</v>
+        <v>521</v>
       </c>
     </row>
     <row r="88" spans="1:11">
       <c r="A88" t="s">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="B88" t="s">
-        <v>129</v>
+        <v>91</v>
       </c>
       <c r="C88" t="s">
-        <v>218</v>
+        <v>180</v>
       </c>
       <c r="D88" t="s">
-        <v>321</v>
+        <v>283</v>
       </c>
       <c r="E88" t="s">
-        <v>392</v>
+        <v>305</v>
       </c>
       <c r="F88" t="s">
-        <v>409</v>
+        <v>332</v>
       </c>
       <c r="H88" t="s">
-        <v>485</v>
+        <v>370</v>
       </c>
       <c r="I88" t="s">
-        <v>592</v>
+        <v>471</v>
       </c>
       <c r="J88" s="2" t="s">
-        <v>702</v>
+        <v>495</v>
       </c>
       <c r="K88" t="s">
-        <v>756</v>
+        <v>521</v>
       </c>
     </row>
     <row r="89" spans="1:11">
       <c r="A89" t="s">
-        <v>98</v>
+        <v>70</v>
       </c>
       <c r="B89" t="s">
-        <v>129</v>
+        <v>91</v>
       </c>
       <c r="C89" t="s">
-        <v>219</v>
+        <v>181</v>
       </c>
       <c r="D89" t="s">
-        <v>322</v>
+        <v>284</v>
       </c>
       <c r="E89" t="s">
-        <v>393</v>
+        <v>326</v>
       </c>
       <c r="H89" t="s">
-        <v>485</v>
+        <v>370</v>
       </c>
       <c r="I89" t="s">
-        <v>593</v>
+        <v>472</v>
       </c>
       <c r="J89" s="2" t="s">
-        <v>703</v>
+        <v>495</v>
       </c>
       <c r="K89" t="s">
-        <v>756</v>
+        <v>521</v>
       </c>
     </row>
     <row r="90" spans="1:11">
       <c r="A90" t="s">
-        <v>99</v>
+        <v>71</v>
       </c>
       <c r="B90" t="s">
-        <v>129</v>
+        <v>91</v>
       </c>
       <c r="C90" t="s">
-        <v>220</v>
+        <v>182</v>
       </c>
       <c r="D90" t="s">
-        <v>323</v>
+        <v>285</v>
       </c>
       <c r="E90" t="s">
-        <v>394</v>
+        <v>326</v>
       </c>
       <c r="H90" t="s">
-        <v>485</v>
+        <v>370</v>
       </c>
       <c r="I90" t="s">
-        <v>594</v>
+        <v>473</v>
       </c>
       <c r="J90" s="2" t="s">
-        <v>704</v>
+        <v>495</v>
       </c>
       <c r="K90" t="s">
-        <v>756</v>
+        <v>521</v>
       </c>
     </row>
     <row r="91" spans="1:11">
       <c r="A91" t="s">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="B91" t="s">
-        <v>129</v>
+        <v>91</v>
       </c>
       <c r="C91" t="s">
-        <v>221</v>
+        <v>183</v>
       </c>
       <c r="D91" t="s">
-        <v>324</v>
+        <v>286</v>
       </c>
       <c r="E91" t="s">
-        <v>394</v>
+        <v>326</v>
       </c>
       <c r="H91" t="s">
-        <v>485</v>
+        <v>370</v>
       </c>
       <c r="I91" t="s">
-        <v>595</v>
+        <v>474</v>
       </c>
       <c r="J91" s="2" t="s">
-        <v>705</v>
+        <v>495</v>
       </c>
       <c r="K91" t="s">
-        <v>756</v>
+        <v>521</v>
       </c>
     </row>
     <row r="92" spans="1:11">
       <c r="A92" t="s">
-        <v>101</v>
+        <v>72</v>
       </c>
       <c r="B92" t="s">
-        <v>130</v>
+        <v>92</v>
       </c>
       <c r="C92" t="s">
-        <v>222</v>
+        <v>184</v>
       </c>
       <c r="D92" t="s">
-        <v>325</v>
+        <v>287</v>
       </c>
       <c r="E92" t="s">
-        <v>395</v>
+        <v>327</v>
       </c>
       <c r="H92" t="s">
-        <v>486</v>
+        <v>371</v>
       </c>
       <c r="I92" t="s">
-        <v>596</v>
+        <v>475</v>
       </c>
       <c r="J92" s="2" t="s">
-        <v>706</v>
+        <v>495</v>
       </c>
       <c r="K92" t="s">
-        <v>757</v>
+        <v>522</v>
       </c>
     </row>
     <row r="93" spans="1:11">
       <c r="A93" t="s">
-        <v>102</v>
+        <v>72</v>
       </c>
       <c r="B93" t="s">
-        <v>130</v>
+        <v>92</v>
       </c>
       <c r="C93" t="s">
-        <v>223</v>
+        <v>185</v>
       </c>
       <c r="D93" t="s">
-        <v>326</v>
+        <v>288</v>
       </c>
       <c r="E93" t="s">
-        <v>396</v>
+        <v>327</v>
       </c>
       <c r="H93" t="s">
-        <v>487</v>
+        <v>372</v>
       </c>
       <c r="I93" t="s">
-        <v>597</v>
+        <v>476</v>
       </c>
       <c r="J93" s="2" t="s">
-        <v>707</v>
+        <v>495</v>
       </c>
       <c r="K93" t="s">
-        <v>757</v>
+        <v>522</v>
       </c>
     </row>
     <row r="94" spans="1:11">
       <c r="A94" t="s">
-        <v>103</v>
+        <v>72</v>
       </c>
       <c r="B94" t="s">
-        <v>130</v>
+        <v>92</v>
       </c>
       <c r="C94" t="s">
-        <v>224</v>
+        <v>186</v>
       </c>
       <c r="D94" t="s">
+        <v>289</v>
+      </c>
+      <c r="E94" t="s">
         <v>327</v>
       </c>
-      <c r="E94" t="s">
-        <v>397</v>
-      </c>
       <c r="H94" t="s">
-        <v>488</v>
+        <v>373</v>
       </c>
       <c r="I94" t="s">
-        <v>598</v>
+        <v>477</v>
       </c>
       <c r="J94" s="2" t="s">
-        <v>708</v>
+        <v>495</v>
       </c>
       <c r="K94" t="s">
-        <v>757</v>
+        <v>522</v>
       </c>
     </row>
     <row r="95" spans="1:11">
       <c r="A95" t="s">
-        <v>104</v>
+        <v>72</v>
       </c>
       <c r="B95" t="s">
-        <v>130</v>
+        <v>92</v>
       </c>
       <c r="C95" t="s">
-        <v>225</v>
+        <v>187</v>
       </c>
       <c r="D95" t="s">
+        <v>290</v>
+      </c>
+      <c r="E95" t="s">
         <v>328</v>
       </c>
-      <c r="E95" t="s">
-        <v>398</v>
-      </c>
       <c r="H95" t="s">
-        <v>489</v>
+        <v>374</v>
       </c>
       <c r="I95" t="s">
-        <v>599</v>
+        <v>478</v>
       </c>
       <c r="J95" s="2" t="s">
-        <v>709</v>
+        <v>495</v>
       </c>
       <c r="K95" t="s">
-        <v>757</v>
+        <v>522</v>
       </c>
     </row>
     <row r="96" spans="1:11">
       <c r="A96" t="s">
-        <v>105</v>
+        <v>72</v>
       </c>
       <c r="B96" t="s">
-        <v>130</v>
+        <v>92</v>
       </c>
       <c r="C96" t="s">
-        <v>226</v>
+        <v>188</v>
       </c>
       <c r="D96" t="s">
-        <v>329</v>
+        <v>291</v>
       </c>
       <c r="E96" t="s">
-        <v>399</v>
+        <v>328</v>
       </c>
       <c r="H96" t="s">
-        <v>490</v>
+        <v>371</v>
       </c>
       <c r="I96" t="s">
-        <v>600</v>
+        <v>479</v>
       </c>
       <c r="J96" s="2" t="s">
-        <v>710</v>
+        <v>495</v>
       </c>
       <c r="K96" t="s">
-        <v>757</v>
+        <v>522</v>
       </c>
     </row>
     <row r="97" spans="1:11">
       <c r="A97" t="s">
-        <v>106</v>
+        <v>72</v>
       </c>
       <c r="B97" t="s">
-        <v>130</v>
+        <v>92</v>
       </c>
       <c r="C97" t="s">
-        <v>227</v>
+        <v>189</v>
       </c>
       <c r="D97" t="s">
-        <v>330</v>
+        <v>292</v>
       </c>
       <c r="E97" t="s">
-        <v>400</v>
+        <v>328</v>
       </c>
       <c r="H97" t="s">
-        <v>491</v>
+        <v>372</v>
       </c>
       <c r="I97" t="s">
-        <v>601</v>
+        <v>480</v>
       </c>
       <c r="J97" s="2" t="s">
-        <v>711</v>
+        <v>495</v>
       </c>
       <c r="K97" t="s">
-        <v>757</v>
+        <v>522</v>
       </c>
     </row>
     <row r="98" spans="1:11">
       <c r="A98" t="s">
-        <v>107</v>
+        <v>72</v>
       </c>
       <c r="B98" t="s">
-        <v>130</v>
+        <v>92</v>
       </c>
       <c r="C98" t="s">
-        <v>228</v>
+        <v>190</v>
       </c>
       <c r="D98" t="s">
-        <v>331</v>
+        <v>293</v>
       </c>
       <c r="E98" t="s">
-        <v>401</v>
+        <v>328</v>
       </c>
       <c r="H98" t="s">
-        <v>492</v>
+        <v>374</v>
       </c>
       <c r="I98" t="s">
-        <v>602</v>
+        <v>481</v>
       </c>
       <c r="J98" s="2" t="s">
-        <v>712</v>
+        <v>495</v>
       </c>
       <c r="K98" t="s">
-        <v>757</v>
+        <v>522</v>
       </c>
     </row>
     <row r="99" spans="1:11">
       <c r="A99" t="s">
-        <v>108</v>
+        <v>72</v>
       </c>
       <c r="B99" t="s">
-        <v>130</v>
+        <v>92</v>
       </c>
       <c r="C99" t="s">
-        <v>229</v>
+        <v>191</v>
       </c>
       <c r="D99" t="s">
-        <v>332</v>
+        <v>294</v>
       </c>
       <c r="E99" t="s">
-        <v>402</v>
+        <v>328</v>
       </c>
       <c r="H99" t="s">
-        <v>493</v>
+        <v>371</v>
       </c>
       <c r="I99" t="s">
-        <v>603</v>
+        <v>482</v>
       </c>
       <c r="J99" s="2" t="s">
-        <v>713</v>
+        <v>495</v>
       </c>
       <c r="K99" t="s">
-        <v>757</v>
+        <v>522</v>
       </c>
     </row>
     <row r="100" spans="1:11">
       <c r="A100" t="s">
-        <v>109</v>
+        <v>72</v>
       </c>
       <c r="B100" t="s">
-        <v>130</v>
+        <v>92</v>
       </c>
       <c r="C100" t="s">
-        <v>230</v>
+        <v>192</v>
       </c>
       <c r="D100" t="s">
-        <v>306</v>
+        <v>268</v>
       </c>
       <c r="E100" t="s">
-        <v>403</v>
+        <v>328</v>
       </c>
       <c r="H100" t="s">
-        <v>494</v>
+        <v>372</v>
       </c>
       <c r="I100" t="s">
-        <v>604</v>
+        <v>483</v>
       </c>
       <c r="J100" s="2" t="s">
-        <v>714</v>
+        <v>495</v>
       </c>
       <c r="K100" t="s">
-        <v>757</v>
+        <v>522</v>
       </c>
     </row>
     <row r="101" spans="1:11">
       <c r="A101" t="s">
-        <v>110</v>
+        <v>72</v>
       </c>
       <c r="B101" t="s">
-        <v>130</v>
+        <v>92</v>
       </c>
       <c r="C101" t="s">
-        <v>231</v>
+        <v>193</v>
       </c>
       <c r="D101" t="s">
-        <v>333</v>
+        <v>295</v>
       </c>
       <c r="E101" t="s">
-        <v>404</v>
+        <v>329</v>
       </c>
       <c r="H101" t="s">
-        <v>495</v>
+        <v>374</v>
       </c>
       <c r="I101" t="s">
-        <v>605</v>
+        <v>484</v>
       </c>
       <c r="J101" s="2" t="s">
-        <v>715</v>
+        <v>495</v>
       </c>
       <c r="K101" t="s">
-        <v>757</v>
+        <v>522</v>
       </c>
     </row>
     <row r="102" spans="1:11">
       <c r="A102" t="s">
-        <v>111</v>
+        <v>73</v>
       </c>
       <c r="B102" t="s">
-        <v>131</v>
+        <v>93</v>
       </c>
       <c r="C102" t="s">
-        <v>232</v>
+        <v>194</v>
       </c>
       <c r="D102" t="s">
+        <v>296</v>
+      </c>
+      <c r="G102" t="s">
         <v>334</v>
       </c>
-      <c r="G102" t="s">
-        <v>411</v>
-      </c>
       <c r="H102" t="s">
-        <v>496</v>
+        <v>375</v>
       </c>
       <c r="I102" t="s">
-        <v>606</v>
+        <v>485</v>
       </c>
       <c r="J102" s="2" t="s">
-        <v>716</v>
+        <v>495</v>
       </c>
       <c r="K102" t="s">
-        <v>758</v>
+        <v>523</v>
       </c>
     </row>
     <row r="103" spans="1:11">
       <c r="A103" t="s">
-        <v>112</v>
+        <v>74</v>
       </c>
       <c r="B103" t="s">
-        <v>131</v>
+        <v>93</v>
       </c>
       <c r="C103" t="s">
-        <v>233</v>
+        <v>195</v>
       </c>
       <c r="D103" t="s">
-        <v>335</v>
+        <v>297</v>
       </c>
       <c r="G103" t="s">
-        <v>412</v>
+        <v>334</v>
       </c>
       <c r="H103" t="s">
-        <v>497</v>
+        <v>376</v>
       </c>
       <c r="I103" t="s">
-        <v>607</v>
+        <v>486</v>
       </c>
       <c r="J103" s="2" t="s">
-        <v>717</v>
+        <v>495</v>
       </c>
       <c r="K103" t="s">
-        <v>758</v>
+        <v>523</v>
       </c>
     </row>
     <row r="104" spans="1:11">
       <c r="A104" t="s">
-        <v>113</v>
+        <v>75</v>
       </c>
       <c r="B104" t="s">
-        <v>131</v>
+        <v>93</v>
       </c>
       <c r="C104" t="s">
-        <v>234</v>
+        <v>196</v>
       </c>
       <c r="D104" t="s">
-        <v>336</v>
+        <v>298</v>
       </c>
       <c r="G104" t="s">
-        <v>413</v>
+        <v>334</v>
       </c>
       <c r="H104" t="s">
-        <v>498</v>
+        <v>377</v>
       </c>
       <c r="I104" t="s">
-        <v>608</v>
+        <v>487</v>
       </c>
       <c r="J104" s="2" t="s">
-        <v>718</v>
+        <v>495</v>
       </c>
       <c r="K104" t="s">
-        <v>758</v>
+        <v>523</v>
       </c>
     </row>
     <row r="105" spans="1:11">
       <c r="A105" t="s">
-        <v>114</v>
+        <v>76</v>
       </c>
       <c r="B105" t="s">
-        <v>131</v>
+        <v>93</v>
       </c>
       <c r="C105" t="s">
-        <v>235</v>
+        <v>197</v>
       </c>
       <c r="D105" t="s">
-        <v>337</v>
+        <v>299</v>
       </c>
       <c r="G105" t="s">
-        <v>414</v>
+        <v>334</v>
       </c>
       <c r="H105" t="s">
-        <v>499</v>
+        <v>378</v>
       </c>
       <c r="I105" t="s">
-        <v>609</v>
+        <v>488</v>
       </c>
       <c r="J105" s="2" t="s">
-        <v>719</v>
+        <v>495</v>
       </c>
       <c r="K105" t="s">
-        <v>758</v>
+        <v>523</v>
       </c>
     </row>
     <row r="106" spans="1:11">
       <c r="A106" t="s">
-        <v>115</v>
+        <v>77</v>
       </c>
       <c r="B106" t="s">
-        <v>131</v>
+        <v>93</v>
       </c>
       <c r="C106" t="s">
-        <v>236</v>
+        <v>198</v>
       </c>
       <c r="D106" t="s">
-        <v>338</v>
+        <v>300</v>
       </c>
       <c r="G106" t="s">
-        <v>415</v>
+        <v>334</v>
       </c>
       <c r="H106" t="s">
-        <v>500</v>
+        <v>379</v>
       </c>
       <c r="I106" t="s">
-        <v>610</v>
+        <v>489</v>
       </c>
       <c r="J106" s="2" t="s">
-        <v>720</v>
+        <v>495</v>
       </c>
       <c r="K106" t="s">
-        <v>758</v>
+        <v>523</v>
       </c>
     </row>
     <row r="107" spans="1:11">
       <c r="A107" t="s">
-        <v>116</v>
+        <v>78</v>
       </c>
       <c r="B107" t="s">
-        <v>131</v>
+        <v>93</v>
       </c>
       <c r="C107" t="s">
-        <v>237</v>
+        <v>199</v>
       </c>
       <c r="D107" t="s">
-        <v>339</v>
+        <v>301</v>
       </c>
       <c r="G107" t="s">
-        <v>416</v>
+        <v>334</v>
       </c>
       <c r="H107" t="s">
-        <v>501</v>
+        <v>380</v>
       </c>
       <c r="I107" t="s">
-        <v>611</v>
+        <v>490</v>
       </c>
       <c r="J107" s="2" t="s">
-        <v>721</v>
+        <v>495</v>
       </c>
       <c r="K107" t="s">
-        <v>758</v>
+        <v>523</v>
       </c>
     </row>
     <row r="108" spans="1:11">
       <c r="A108" t="s">
-        <v>117</v>
+        <v>79</v>
       </c>
       <c r="B108" t="s">
-        <v>131</v>
+        <v>93</v>
       </c>
       <c r="C108" t="s">
-        <v>238</v>
+        <v>200</v>
       </c>
       <c r="D108" t="s">
-        <v>340</v>
+        <v>302</v>
       </c>
       <c r="E108" t="s">
-        <v>405</v>
+        <v>315</v>
       </c>
       <c r="F108" t="s">
-        <v>410</v>
+        <v>333</v>
       </c>
       <c r="H108" t="s">
-        <v>502</v>
+        <v>381</v>
       </c>
       <c r="I108" t="s">
-        <v>612</v>
+        <v>491</v>
       </c>
       <c r="J108" s="2" t="s">
-        <v>722</v>
+        <v>495</v>
       </c>
       <c r="K108" t="s">
-        <v>759</v>
+        <v>524</v>
       </c>
     </row>
     <row r="109" spans="1:11">
       <c r="A109" t="s">
-        <v>118</v>
+        <v>80</v>
       </c>
       <c r="B109" t="s">
-        <v>131</v>
+        <v>93</v>
       </c>
       <c r="C109" t="s">
-        <v>239</v>
+        <v>201</v>
       </c>
       <c r="D109" t="s">
-        <v>341</v>
+        <v>303</v>
       </c>
       <c r="G109" t="s">
-        <v>417</v>
+        <v>334</v>
       </c>
       <c r="H109" t="s">
-        <v>503</v>
+        <v>382</v>
       </c>
       <c r="I109" t="s">
-        <v>613</v>
+        <v>492</v>
       </c>
       <c r="J109" s="2" t="s">
-        <v>723</v>
+        <v>495</v>
       </c>
       <c r="K109" t="s">
-        <v>760</v>
+        <v>525</v>
       </c>
     </row>
     <row r="110" spans="1:11">
       <c r="A110" t="s">
-        <v>119</v>
+        <v>81</v>
       </c>
       <c r="B110" t="s">
-        <v>131</v>
+        <v>93</v>
       </c>
       <c r="C110" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="D110" t="s">
-        <v>342</v>
+        <v>304</v>
       </c>
       <c r="G110" t="s">
-        <v>418</v>
+        <v>334</v>
       </c>
       <c r="H110" t="s">
-        <v>504</v>
+        <v>383</v>
       </c>
       <c r="I110" t="s">
-        <v>614</v>
+        <v>493</v>
       </c>
       <c r="J110" s="2" t="s">
-        <v>724</v>
+        <v>495</v>
       </c>
       <c r="K110" t="s">
-        <v>760</v>
+        <v>525</v>
       </c>
     </row>
     <row r="111" spans="1:11">
       <c r="A111" t="s">
-        <v>120</v>
+        <v>82</v>
       </c>
       <c r="B111" t="s">
-        <v>131</v>
+        <v>93</v>
       </c>
       <c r="C111" t="s">
-        <v>241</v>
+        <v>203</v>
       </c>
       <c r="D111" t="s">
-        <v>248</v>
+        <v>210</v>
       </c>
       <c r="G111" t="s">
-        <v>419</v>
+        <v>334</v>
       </c>
       <c r="H111" t="s">
-        <v>505</v>
+        <v>384</v>
       </c>
       <c r="I111" t="s">
-        <v>615</v>
+        <v>494</v>
       </c>
       <c r="J111" s="2" t="s">
-        <v>725</v>
+        <v>495</v>
       </c>
       <c r="K111" t="s">
-        <v>761</v>
+        <v>526</v>
       </c>
     </row>
   </sheetData>

--- a/samples/SA-عينة-مستلزمات-البناء-preview.xlsx
+++ b/samples/SA-عينة-مستلزمات-البناء-preview.xlsx
@@ -934,128 +934,89 @@
     <t>العلامة التجار...</t>
   </si>
   <si>
-    <t>رقم الموديل
-05...</t>
-  </si>
-  <si>
-    <t>رقم الموديل
-A3...</t>
-  </si>
-  <si>
-    <t>بلد الصنع
-اسبا...</t>
-  </si>
-  <si>
-    <t>رقم الموديل
-A8...</t>
-  </si>
-  <si>
-    <t>المقاس
-90x3
-ال...</t>
-  </si>
-  <si>
-    <t>المقاس
-63x2
-ال...</t>
-  </si>
-  <si>
-    <t>المقاس
-50x11/2...</t>
-  </si>
-  <si>
-    <t>المقاس
-40x11/4...</t>
-  </si>
-  <si>
-    <t>المقاس
-20x3/4
-...</t>
-  </si>
-  <si>
-    <t>تفاصيل المنتج
-...</t>
-  </si>
-  <si>
-    <t>المقاس
-120*60
-...</t>
-  </si>
-  <si>
-    <t>بلد الصنع
-ايطا...</t>
-  </si>
-  <si>
-    <t>المقاس
-135*300...</t>
-  </si>
-  <si>
-    <t>المقاس
-240*120...</t>
-  </si>
-  <si>
-    <t>مقاس اللوح
-20(...</t>
-  </si>
-  <si>
-    <t>المقاس
-6بوصه
-ت...</t>
-  </si>
-  <si>
-    <t>المقاس
-70*70
-ت...</t>
-  </si>
-  <si>
-    <t>المقاس
-100*100...</t>
-  </si>
-  <si>
-    <t>المقاس
-120*120...</t>
-  </si>
-  <si>
-    <t>المقاس
-50*50
-ت...</t>
-  </si>
-  <si>
-    <t>المقاس
-3 متر
-ت...</t>
-  </si>
-  <si>
-    <t>اللون
-رصاصي
-تف...</t>
-  </si>
-  <si>
-    <t>اللون
-أسود
-تفا...</t>
-  </si>
-  <si>
-    <t>اللون
-رصاصي*اب...</t>
-  </si>
-  <si>
-    <t>المقاس
-20مم
-25...</t>
-  </si>
-  <si>
-    <t>المقاس
-20x1/2
-...</t>
+    <t>رقم الموديل 05...</t>
+  </si>
+  <si>
+    <t>رقم الموديل A3...</t>
+  </si>
+  <si>
+    <t>بلد الصنع اسبا...</t>
+  </si>
+  <si>
+    <t>رقم الموديل A8...</t>
+  </si>
+  <si>
+    <t>المقاس 90x3 ال...</t>
+  </si>
+  <si>
+    <t>المقاس 63x2 ال...</t>
+  </si>
+  <si>
+    <t>المقاس 50x11/2...</t>
+  </si>
+  <si>
+    <t>المقاس 40x11/4...</t>
+  </si>
+  <si>
+    <t>المقاس 20x3/4 ...</t>
+  </si>
+  <si>
+    <t>تفاصيل المنتج ...</t>
+  </si>
+  <si>
+    <t>المقاس 120*60 ...</t>
+  </si>
+  <si>
+    <t>بلد الصنع ايطا...</t>
+  </si>
+  <si>
+    <t>المقاس 135*300...</t>
+  </si>
+  <si>
+    <t>المقاس 240*120...</t>
+  </si>
+  <si>
+    <t>مقاس اللوح 20(...</t>
+  </si>
+  <si>
+    <t>المقاس 6بوصه ت...</t>
+  </si>
+  <si>
+    <t>المقاس 70*70 ت...</t>
+  </si>
+  <si>
+    <t>المقاس 100*100...</t>
+  </si>
+  <si>
+    <t>المقاس 120*120...</t>
+  </si>
+  <si>
+    <t>المقاس 50*50 ت...</t>
+  </si>
+  <si>
+    <t>المقاس 3 متر ت...</t>
+  </si>
+  <si>
+    <t>اللون رصاصي تف...</t>
+  </si>
+  <si>
+    <t>اللون أسود تفا...</t>
+  </si>
+  <si>
+    <t>اللون رصاصي*اب...</t>
+  </si>
+  <si>
+    <t>المقاس 20مم 25...</t>
+  </si>
+  <si>
+    <t>المقاس 20x1/2 ...</t>
   </si>
   <si>
     <t>المقاس
 3 متر</t>
   </si>
   <si>
-    <t>العرض ملم
-600م...</t>
+    <t>العرض ملم 600م...</t>
   </si>
   <si>
     <t>اسم المنتج الك...</t>
@@ -1067,16 +1028,13 @@
     <t>خلاط بانيو اطل...</t>
   </si>
   <si>
-    <t>كرسي من ديبا
-ك...</t>
-  </si>
-  <si>
-    <t>كرسي ذا جاب
-كر...</t>
-  </si>
-  <si>
-    <t>مغسلة ذا جاب
-ا...</t>
+    <t>كرسي من ديبا ك...</t>
+  </si>
+  <si>
+    <t>كرسي ذا جاب كر...</t>
+  </si>
+  <si>
+    <t>مغسلة ذا جاب ا...</t>
   </si>
   <si>
     <t>مجموعة طقم اكس...</t>
@@ -1112,17 +1070,13 @@
     <t>للموديل / 9045...</t>
   </si>
   <si>
-    <t>الالوان:
-SILVE...</t>
-  </si>
-  <si>
-    <t>الالوان:
-BRONZ...</t>
-  </si>
-  <si>
-    <t>الالوان:
-SN
-ال...</t>
+    <t>الالوان: SILVE...</t>
+  </si>
+  <si>
+    <t>الالوان: BRONZ...</t>
+  </si>
+  <si>
+    <t>الالوان: SN ال...</t>
   </si>
   <si>
     <t>مثقاب يدوي - ذ...</t>
@@ -1131,16 +1085,13 @@
     <t>حراري - حسر من...</t>
   </si>
   <si>
-    <t>Gateway G2
-هي ...</t>
-  </si>
-  <si>
-    <t>تعريف المنتج
-ج...</t>
-  </si>
-  <si>
-    <t>الالوان:
-MSN ,...</t>
+    <t>Gateway G2 هي ...</t>
+  </si>
+  <si>
+    <t>تعريف المنتج ج...</t>
+  </si>
+  <si>
+    <t>الالوان: MSN ,...</t>
   </si>
   <si>
     <t>6 أجهزة في جها...</t>
@@ -1149,12 +1100,10 @@
     <t>قفل باب ذكي OD...</t>
   </si>
   <si>
-    <t>الالوان:
-فضي -...</t>
-  </si>
-  <si>
-    <t>الالوان:
-أسود ...</t>
+    <t>الالوان: فضي -...</t>
+  </si>
+  <si>
+    <t>الالوان: أسود ...</t>
   </si>
   <si>
     <t>حجم العبوة 1 ل...</t>
@@ -1193,42 +1142,34 @@
     <t>المقاسات: A : ...</t>
   </si>
   <si>
-    <t>خشب بلوط أحمر
-...</t>
-  </si>
-  <si>
-    <t>خشب الكرز
-يتحو...</t>
+    <t>خشب بلوط أحمر ...</t>
+  </si>
+  <si>
+    <t>خشب الكرز يتحو...</t>
   </si>
   <si>
     <t>خشب الصنوبر ال...</t>
   </si>
   <si>
-    <t>خشب ميرانتي
-وع...</t>
+    <t>خشب ميرانتي وع...</t>
   </si>
   <si>
     <t>خشب زان أوروبي...</t>
   </si>
   <si>
-    <t>خشب الواوا
-Waw...</t>
-  </si>
-  <si>
-    <t>نظره عامة
-يتم ...</t>
-  </si>
-  <si>
-    <t>شبك مزارع
-سياج...</t>
-  </si>
-  <si>
-    <t>Item Name
-Text...</t>
-  </si>
-  <si>
-    <t>مواسير حديد
-مو...</t>
+    <t>خشب الواوا Waw...</t>
+  </si>
+  <si>
+    <t>نظره عامة يتم ...</t>
+  </si>
+  <si>
+    <t>شبك مزارع سياج...</t>
+  </si>
+  <si>
+    <t>Item Name Text...</t>
+  </si>
+  <si>
+    <t>مواسير حديد مو...</t>
   </si>
   <si>
     <t>image117.jpg</t>
